--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O640"/>
+  <dimension ref="A1:O649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30211,13 +30211,13 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B640" t="n">
-        <v>369.3</v>
-      </c>
+      <c r="B640" t="inlineStr"/>
       <c r="C640" t="n">
         <v>359.73</v>
       </c>
-      <c r="D640" t="inlineStr"/>
+      <c r="D640" t="n">
+        <v>363.96</v>
+      </c>
       <c r="E640" t="n">
         <v>364.2233333333333</v>
       </c>
@@ -30251,6 +30251,435 @@
       <c r="O640" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="n">
+        <v>380.7081818181818</v>
+      </c>
+      <c r="E641" t="n">
+        <v>373.1211111111111</v>
+      </c>
+      <c r="F641" t="n">
+        <v>349.5700000000001</v>
+      </c>
+      <c r="G641" t="n">
+        <v>357.8133333333333</v>
+      </c>
+      <c r="H641" t="n">
+        <v>357.81</v>
+      </c>
+      <c r="I641" t="n">
+        <v>359.6881818181818</v>
+      </c>
+      <c r="J641" t="n">
+        <v>350.5633333333333</v>
+      </c>
+      <c r="K641" t="n">
+        <v>349.9633333333333</v>
+      </c>
+      <c r="L641" t="n">
+        <v>355.5833333333333</v>
+      </c>
+      <c r="M641" t="n">
+        <v>356.7723076923077</v>
+      </c>
+      <c r="N641" t="n">
+        <v>365.2381818181818</v>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>358.5033333333333</v>
+      </c>
+      <c r="C642" t="n">
+        <v>367.93</v>
+      </c>
+      <c r="D642" t="n">
+        <v>363.9954545454545</v>
+      </c>
+      <c r="E642" t="n">
+        <v>372.3788888888889</v>
+      </c>
+      <c r="F642" t="n">
+        <v>355.15</v>
+      </c>
+      <c r="G642" t="n">
+        <v>361.1466666666667</v>
+      </c>
+      <c r="H642" t="n">
+        <v>361.74</v>
+      </c>
+      <c r="I642" t="n">
+        <v>356.3554545454546</v>
+      </c>
+      <c r="J642" t="n">
+        <v>345.4966666666667</v>
+      </c>
+      <c r="K642" t="n">
+        <v>353.9866666666667</v>
+      </c>
+      <c r="L642" t="n">
+        <v>348.4766666666667</v>
+      </c>
+      <c r="M642" t="n">
+        <v>353.4730769230769</v>
+      </c>
+      <c r="N642" t="n">
+        <v>362.8954545454546</v>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>353.79</v>
+      </c>
+      <c r="C643" t="n">
+        <v>364.44</v>
+      </c>
+      <c r="D643" t="n">
+        <v>350.5890909090909</v>
+      </c>
+      <c r="E643" t="n">
+        <v>349.1433333333333</v>
+      </c>
+      <c r="F643" t="n">
+        <v>343.71</v>
+      </c>
+      <c r="G643" t="n">
+        <v>348.16</v>
+      </c>
+      <c r="H643" t="n">
+        <v>359.54</v>
+      </c>
+      <c r="I643" t="n">
+        <v>358.2790909090909</v>
+      </c>
+      <c r="J643" t="n">
+        <v>352.65</v>
+      </c>
+      <c r="K643" t="n">
+        <v>347.31</v>
+      </c>
+      <c r="L643" t="n">
+        <v>341.3</v>
+      </c>
+      <c r="M643" t="n">
+        <v>345.05</v>
+      </c>
+      <c r="N643" t="n">
+        <v>350.6190909090909</v>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>351.1266666666667</v>
+      </c>
+      <c r="C644" t="n">
+        <v>356.6799999999999</v>
+      </c>
+      <c r="D644" t="n">
+        <v>356.7563636363636</v>
+      </c>
+      <c r="E644" t="n">
+        <v>355.8311111111111</v>
+      </c>
+      <c r="F644" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="G644" t="n">
+        <v>351.0133333333333</v>
+      </c>
+      <c r="H644" t="n">
+        <v>364.31</v>
+      </c>
+      <c r="I644" t="n">
+        <v>358.6463636363636</v>
+      </c>
+      <c r="J644" t="n">
+        <v>358.3033333333333</v>
+      </c>
+      <c r="K644" t="n">
+        <v>350.9233333333333</v>
+      </c>
+      <c r="L644" t="n">
+        <v>364.3033333333333</v>
+      </c>
+      <c r="M644" t="n">
+        <v>349.55</v>
+      </c>
+      <c r="N644" t="n">
+        <v>364.1263636363637</v>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>366.43</v>
+      </c>
+      <c r="C645" t="n">
+        <v>369.8</v>
+      </c>
+      <c r="D645" t="n">
+        <v>367.2909090909091</v>
+      </c>
+      <c r="E645" t="n">
+        <v>370.7266666666667</v>
+      </c>
+      <c r="F645" t="n">
+        <v>359.31</v>
+      </c>
+      <c r="G645" t="n">
+        <v>361.69</v>
+      </c>
+      <c r="H645" t="n">
+        <v>371.56</v>
+      </c>
+      <c r="I645" t="n">
+        <v>370.6909090909091</v>
+      </c>
+      <c r="J645" t="n">
+        <v>366.28</v>
+      </c>
+      <c r="K645" t="n">
+        <v>361.38</v>
+      </c>
+      <c r="L645" t="n">
+        <v>358.54</v>
+      </c>
+      <c r="M645" t="n">
+        <v>359.45</v>
+      </c>
+      <c r="N645" t="n">
+        <v>363.8409090909091</v>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>347.8366666666667</v>
+      </c>
+      <c r="C646" t="n">
+        <v>356.56</v>
+      </c>
+      <c r="D646" t="n">
+        <v>354.2863636363636</v>
+      </c>
+      <c r="E646" t="n">
+        <v>352.4644444444444</v>
+      </c>
+      <c r="F646" t="n">
+        <v>339.28</v>
+      </c>
+      <c r="G646" t="n">
+        <v>350.0833333333333</v>
+      </c>
+      <c r="H646" t="n">
+        <v>351.86</v>
+      </c>
+      <c r="I646" t="n">
+        <v>346.3463636363636</v>
+      </c>
+      <c r="J646" t="n">
+        <v>357.5733333333333</v>
+      </c>
+      <c r="K646" t="n">
+        <v>351.0633333333333</v>
+      </c>
+      <c r="L646" t="n">
+        <v>345.5133333333333</v>
+      </c>
+      <c r="M646" t="n">
+        <v>347.1669230769231</v>
+      </c>
+      <c r="N646" t="n">
+        <v>347.9963636363636</v>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>349.0366666666667</v>
+      </c>
+      <c r="C647" t="n">
+        <v>359.29</v>
+      </c>
+      <c r="D647" t="n">
+        <v>359.4009090909091</v>
+      </c>
+      <c r="E647" t="n">
+        <v>361.8477777777778</v>
+      </c>
+      <c r="F647" t="n">
+        <v>353.89</v>
+      </c>
+      <c r="G647" t="n">
+        <v>356.3733333333333</v>
+      </c>
+      <c r="H647" t="n">
+        <v>367.99</v>
+      </c>
+      <c r="I647" t="n">
+        <v>357.4609090909091</v>
+      </c>
+      <c r="J647" t="n">
+        <v>348.0533333333333</v>
+      </c>
+      <c r="K647" t="n">
+        <v>350.2933333333333</v>
+      </c>
+      <c r="L647" t="n">
+        <v>345.6533333333333</v>
+      </c>
+      <c r="M647" t="n">
+        <v>349.4153846153847</v>
+      </c>
+      <c r="N647" t="n">
+        <v>355.0609090909091</v>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>355.7866666666667</v>
+      </c>
+      <c r="C648" t="n">
+        <v>364.12</v>
+      </c>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="n">
+        <v>319.9107692307692</v>
+      </c>
+      <c r="N648" t="n">
+        <v>370.3563636363637</v>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="n">
+        <v>396.9866666666667</v>
+      </c>
+      <c r="F649" t="n">
+        <v>372.42</v>
+      </c>
+      <c r="G649" t="n">
+        <v>376.24</v>
+      </c>
+      <c r="H649" t="n">
+        <v>363.43</v>
+      </c>
+      <c r="I649" t="n">
+        <v>360.1645454545454</v>
+      </c>
+      <c r="J649" t="n">
+        <v>351.72</v>
+      </c>
+      <c r="K649" t="n">
+        <v>359.73</v>
+      </c>
+      <c r="L649" t="n">
+        <v>356.19</v>
+      </c>
+      <c r="M649" t="inlineStr"/>
+      <c r="N649" t="n">
+        <v>364.4445454545455</v>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -30265,7 +30694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B706"/>
+  <dimension ref="A1:B715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37333,6 +37762,96 @@
       </c>
       <c r="B706" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>-0.67</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -37501,28 +38020,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3147776061115877</v>
+        <v>-0.3585623949566213</v>
       </c>
       <c r="J2" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K2" t="n">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="L2" t="n">
-        <v>0.019811537939049</v>
+        <v>0.02600417674296696</v>
       </c>
       <c r="M2" t="n">
-        <v>11.95362653911601</v>
+        <v>11.96634320119545</v>
       </c>
       <c r="N2" t="n">
-        <v>269.012192109726</v>
+        <v>268.8455595493195</v>
       </c>
       <c r="O2" t="n">
-        <v>16.40159114567016</v>
+        <v>16.39651059065067</v>
       </c>
       <c r="P2" t="n">
-        <v>376.5877926154108</v>
+        <v>376.9917286551863</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -37578,28 +38097,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5185261245227005</v>
+        <v>0.4902292997366753</v>
       </c>
       <c r="J3" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K3" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06289255658691462</v>
+        <v>0.05788396029234566</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09637804715783</v>
+        <v>10.04030026104125</v>
       </c>
       <c r="N3" t="n">
-        <v>218.0733551374367</v>
+        <v>216.7505861221684</v>
       </c>
       <c r="O3" t="n">
-        <v>14.76730696970293</v>
+        <v>14.72245177007445</v>
       </c>
       <c r="P3" t="n">
-        <v>359.6997825116005</v>
+        <v>359.9624036482567</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -37655,28 +38174,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4642290326574253</v>
+        <v>0.4486692928137277</v>
       </c>
       <c r="J4" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K4" t="n">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06366058755203263</v>
+        <v>0.06107638591716102</v>
       </c>
       <c r="M4" t="n">
-        <v>8.657691261869189</v>
+        <v>8.629333045585657</v>
       </c>
       <c r="N4" t="n">
-        <v>172.9127180234026</v>
+        <v>171.8588401959652</v>
       </c>
       <c r="O4" t="n">
-        <v>13.14962805646618</v>
+        <v>13.10949427689586</v>
       </c>
       <c r="P4" t="n">
-        <v>355.6308489031254</v>
+        <v>355.7767060653097</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -37732,28 +38251,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0321210350082578</v>
+        <v>0.04422412655999422</v>
       </c>
       <c r="J5" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K5" t="n">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004103703833703287</v>
+        <v>0.0007845539730875206</v>
       </c>
       <c r="M5" t="n">
-        <v>8.584634782641167</v>
+        <v>8.636816525205813</v>
       </c>
       <c r="N5" t="n">
-        <v>132.4617631560329</v>
+        <v>133.8582750945458</v>
       </c>
       <c r="O5" t="n">
-        <v>11.50920341101125</v>
+        <v>11.56971369976569</v>
       </c>
       <c r="P5" t="n">
-        <v>361.9448955118922</v>
+        <v>361.8283649827231</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -37809,28 +38328,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1770128877366499</v>
+        <v>-0.1687779265807441</v>
       </c>
       <c r="J6" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K6" t="n">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01641291789803601</v>
+        <v>0.01519722151233516</v>
       </c>
       <c r="M6" t="n">
-        <v>7.362385350248998</v>
+        <v>7.364694537296703</v>
       </c>
       <c r="N6" t="n">
-        <v>101.3641975455108</v>
+        <v>101.3289596132381</v>
       </c>
       <c r="O6" t="n">
-        <v>10.06797882126849</v>
+        <v>10.06622866883313</v>
       </c>
       <c r="P6" t="n">
-        <v>354.3438785427436</v>
+        <v>354.2654786209706</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -37886,28 +38405,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02774211016776598</v>
+        <v>-0.02676865705577571</v>
       </c>
       <c r="J7" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K7" t="n">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004764894521834817</v>
+        <v>0.0004522928710876117</v>
       </c>
       <c r="M7" t="n">
-        <v>6.854466878701105</v>
+        <v>6.848249925432111</v>
       </c>
       <c r="N7" t="n">
-        <v>87.62394678825854</v>
+        <v>87.38958305124655</v>
       </c>
       <c r="O7" t="n">
-        <v>9.360766356888657</v>
+        <v>9.3482395696327</v>
       </c>
       <c r="P7" t="n">
-        <v>358.1853806213406</v>
+        <v>358.1759211194933</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -37963,28 +38482,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03380681723499564</v>
+        <v>0.02632598992510821</v>
       </c>
       <c r="J8" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K8" t="n">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0008665074540351592</v>
+        <v>0.000537912617933789</v>
       </c>
       <c r="M8" t="n">
-        <v>6.468068673408164</v>
+        <v>6.446585010823813</v>
       </c>
       <c r="N8" t="n">
-        <v>71.66556547632835</v>
+        <v>71.2105818509386</v>
       </c>
       <c r="O8" t="n">
-        <v>8.465551693559513</v>
+        <v>8.438636255399246</v>
       </c>
       <c r="P8" t="n">
-        <v>364.1230203881835</v>
+        <v>364.1934369897397</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -38040,28 +38559,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08371216111455386</v>
+        <v>-0.07591459590044725</v>
       </c>
       <c r="J9" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K9" t="n">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006745630202307007</v>
+        <v>0.005665539660814178</v>
       </c>
       <c r="M9" t="n">
-        <v>5.394371566209808</v>
+        <v>5.388557705737307</v>
       </c>
       <c r="N9" t="n">
-        <v>55.86173170599793</v>
+        <v>55.71251893635816</v>
       </c>
       <c r="O9" t="n">
-        <v>7.474070624900325</v>
+        <v>7.464081921868098</v>
       </c>
       <c r="P9" t="n">
-        <v>357.828754211625</v>
+        <v>357.7552393996573</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -38117,28 +38636,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.09281257730341014</v>
+        <v>-0.07903282442710421</v>
       </c>
       <c r="J10" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K10" t="n">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="L10" t="n">
-        <v>0.008130543782495114</v>
+        <v>0.006003427419918661</v>
       </c>
       <c r="M10" t="n">
-        <v>5.755576643877525</v>
+        <v>5.758220328846568</v>
       </c>
       <c r="N10" t="n">
-        <v>57.06664729735252</v>
+        <v>57.12844152951108</v>
       </c>
       <c r="O10" t="n">
-        <v>7.554246970900047</v>
+        <v>7.558335896843371</v>
       </c>
       <c r="P10" t="n">
-        <v>351.2951472157874</v>
+        <v>351.1653005389033</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -38194,28 +38713,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.09279944955843822</v>
+        <v>-0.08166764557023583</v>
       </c>
       <c r="J11" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K11" t="n">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L11" t="n">
-        <v>0.007160138523942816</v>
+        <v>0.005681873173648988</v>
       </c>
       <c r="M11" t="n">
-        <v>6.110934471079603</v>
+        <v>6.084258932152033</v>
       </c>
       <c r="N11" t="n">
-        <v>65.41527011640389</v>
+        <v>65.00544178905672</v>
       </c>
       <c r="O11" t="n">
-        <v>8.087970704472408</v>
+        <v>8.062595226665959</v>
       </c>
       <c r="P11" t="n">
-        <v>351.4484614833315</v>
+        <v>351.3436184486382</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -38271,28 +38790,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.149137650840712</v>
+        <v>-0.1446047585663589</v>
       </c>
       <c r="J12" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K12" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01903360065090409</v>
+        <v>0.01822462883226506</v>
       </c>
       <c r="M12" t="n">
-        <v>5.893306407770459</v>
+        <v>5.904051815479548</v>
       </c>
       <c r="N12" t="n">
-        <v>63.14779048628503</v>
+        <v>63.05517267132618</v>
       </c>
       <c r="O12" t="n">
-        <v>7.946558405138984</v>
+        <v>7.940728724199447</v>
       </c>
       <c r="P12" t="n">
-        <v>354.0943492603583</v>
+        <v>354.0516182703143</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -38348,28 +38867,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1243145237619035</v>
+        <v>-0.1345711354247596</v>
       </c>
       <c r="J13" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K13" t="n">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01346114640269969</v>
+        <v>0.01570356262099859</v>
       </c>
       <c r="M13" t="n">
-        <v>5.979892828546522</v>
+        <v>6.006381843381403</v>
       </c>
       <c r="N13" t="n">
-        <v>63.21277282056529</v>
+        <v>64.36949756853691</v>
       </c>
       <c r="O13" t="n">
-        <v>7.950646063092313</v>
+        <v>8.02306036176576</v>
       </c>
       <c r="P13" t="n">
-        <v>354.4434237694167</v>
+        <v>354.5395609755245</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -38425,28 +38944,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06711014175444491</v>
+        <v>-0.07003824081682462</v>
       </c>
       <c r="J14" t="n">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K14" t="n">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003475959519019911</v>
+        <v>0.003875888928884574</v>
       </c>
       <c r="M14" t="n">
-        <v>6.525915036398848</v>
+        <v>6.514928348271932</v>
       </c>
       <c r="N14" t="n">
-        <v>71.10079976899657</v>
+        <v>70.74779807743248</v>
       </c>
       <c r="O14" t="n">
-        <v>8.432129017572997</v>
+        <v>8.411171028901533</v>
       </c>
       <c r="P14" t="n">
-        <v>363.1067461820884</v>
+        <v>363.1343324711198</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -38483,7 +39002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O640"/>
+  <dimension ref="A1:O649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82008,17 +82527,17 @@
           <t>2024-11-18 22:11:59+00:00</t>
         </is>
       </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>-36.61631608171038,174.82971740181708</t>
-        </is>
-      </c>
+      <c r="B640" t="inlineStr"/>
       <c r="C640" t="inlineStr">
         <is>
           <t>-36.615726895387276,174.8291967949101</t>
         </is>
       </c>
-      <c r="D640" t="inlineStr"/>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-36.615323128505416,174.8284546965842</t>
+        </is>
+      </c>
       <c r="E640" t="inlineStr">
         <is>
           <t>-36.614981294785224,174.82767573727742</t>
@@ -82072,6 +82591,639 @@
       <c r="O640" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr"/>
+      <c r="C641" t="inlineStr"/>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-36.615450686371055,174.82835460570433</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-36.615055806503456,174.82763898104835</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-36.61466030463678,174.82687090139336</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-36.614479786830934,174.82600087938525</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-36.614302468883004,174.82513147006173</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-36.61431770464783,174.82423527443143</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-36.61428942232563,174.82332932678338</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>-36.61435588549404,174.82243010041643</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>-36.614518458772935,174.82154896228016</t>
+        </is>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>-36.6147122658922,174.8206796128205</t>
+        </is>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>-36.61504394134601,174.8198801357147</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-36.61624990242972,174.8298058826695</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-36.61578199413592,174.82913570636893</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-36.61532339853518,174.82845448470025</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-36.6150495909909,174.82764204712998</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-36.614708274796754,174.82685218433662</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-36.61450857072965,174.82599021578338</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-36.61433766332966,174.82512654840798</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-36.61428770666898,174.8242334317439</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-36.61424398795955,174.8233236890451</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-36.61439178544505,174.82243641037317</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>-36.6144559537511,174.82153164098116</t>
+        </is>
+      </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>-36.61468411243148,174.82066775174815</t>
+        </is>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>-36.61502437367273,174.81987030091776</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-36.61622101154794,174.82984450933554</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-36.615758543574536,174.82916170625865</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-36.61522129264192,174.82853460389404</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-36.61485501191465,174.82773803176968</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-36.614609927369145,174.82689055763345</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-36.61439642865538,174.82603176113395</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-36.61431796160382,174.8251293035327</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-36.61430502137802,174.82423449533528</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-36.61430813411039,174.82333164864363</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-36.61433220996671,174.82242593908978</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>-36.6143928330567,174.82151414909947</t>
+        </is>
+      </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>-36.61461223543802,174.8206374699653</t>
+        </is>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>-36.614921835099786,174.8198187646814</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-36.6162046863556,174.8298663358476</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-36.61570640133302,174.82921951684537</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-36.615268263990046,174.8284977470262</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-36.614911016677944,174.8277104050219</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-36.61465514655491,174.82687291397875</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-36.61442106767488,174.82602263310983</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-36.61436067852745,174.8251233299199</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-36.614308327210935,174.82423469840288</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-36.614358829296556,174.8233379391854</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-36.6143644515139,174.82243160602275</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>-36.61459515348476,174.82157021584754</t>
+        </is>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>-36.61465063547688,174.8206536478968</t>
+        </is>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>-36.61503465486401,174.8198754682881</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-36.61629848975577,174.82974092205848</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-36.61579455933423,174.82912177518946</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-36.61534849745367,174.82843479035245</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-36.615035754961916,174.82764887237292</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-36.61474403749493,174.82683823038752</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-36.614513262505056,174.82598847761554</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-36.61442560466845,174.82511425051865</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-36.61441674052689,174.82424135792772</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-36.614430358528665,174.82334681494845</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>-36.614457755692875,174.8224480056546</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>-36.61454446344079,174.82155616866433</t>
+        </is>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>-36.61473511555222,174.82068923940508</t>
+        </is>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>-36.615032270599585,174.81987426994655</t>
+        </is>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-36.61618451993633,174.82989329799682</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-36.61570559500949,174.82922041082293</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-36.61524945191099,174.82851250825053</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-36.61488282355144,174.827724312494</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-36.61457184352834,174.82690541719816</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-36.614413036966496,174.82602560824913</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-36.61424918466934,174.82513892141324</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-36.61419761453807,174.82422789766113</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-36.614352283161125,174.8233371269038</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-36.61436570072512,174.82243182559034</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>-36.61442989044581,174.8215244183658</t>
+        </is>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>-36.61463029986692,174.82064508050468</t>
+        </is>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>-36.614899928714166,174.81980775447747</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-21 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-36.61619187546988,174.8298834637799</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-36.61572393886823,174.8292000728294</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-36.615288405444915,174.8284819426748</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-36.614961401420146,174.8276855505548</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-36.61469744282539,174.82685641077072</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-36.61446735218642,174.82600548605896</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-36.61439363414121,174.82511872134268</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-36.61429765689876,174.824234042957</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-36.61426691437989,174.82332653387655</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-36.614358830063374,174.82243061796854</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>-36.61443112178309,174.82152475959163</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>-36.61464948675781,174.8206531639413</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>-36.61495893547825,174.81983741144018</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-36.616233250331696,174.82982814627476</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-36.61575639337954,174.82916409020189</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr"/>
+      <c r="E648" t="inlineStr"/>
+      <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
+      <c r="L648" t="inlineStr"/>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>-36.614397713732075,174.8205470923289</t>
+        </is>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>-36.615086691051644,174.81990162192076</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr"/>
+      <c r="C649" t="inlineStr"/>
+      <c r="D649" t="inlineStr"/>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-36.61525566124753,174.82754039341836</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-36.614856741565326,174.82679425524177</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-36.61463890421217,174.82594193089994</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-36.614352797837164,174.8251244319705</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-36.614321992411305,174.82423553781626</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-36.61429979451305,174.82333061382076</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>-36.61444303284697,174.822445417887</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>-36.61452379456728,174.82155044092903</t>
+        </is>
+      </c>
+      <c r="M649" t="inlineStr"/>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>-36.61503731248357,174.81987680401923</t>
+        </is>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -37865,7 +37865,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37956,35 +37956,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -38043,27 +38048,28 @@
       <c r="P2" t="n">
         <v>376.9917286551863</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.83274380335018 -36.61405238398293, 174.82519798245227 -36.61969614912212)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8327438033502</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.61405238398293</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8251979824523</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.61969614912212</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8289708929012</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.61687426655253</v>
       </c>
     </row>
@@ -38120,27 +38126,28 @@
       <c r="P3" t="n">
         <v>359.9624036482567</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.8318766341362 -36.61330971123377, 174.82501806961022 -36.619495644555364)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8318766341362</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.61330971123377</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8250180696102</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.61949564455536</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8284473518732</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.61640267789457</v>
       </c>
     </row>
@@ -38197,27 +38204,28 @@
       <c r="P4" t="n">
         <v>355.7767060653097</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.83062972278148 -36.61255110931383, 174.82512911035627 -36.61956106072461)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8306297227815</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.61255110931383</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8251291103563</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.61956106072461</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8278794165689</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.61605608501922</v>
       </c>
     </row>
@@ -38274,27 +38282,28 @@
       <c r="P5" t="n">
         <v>361.8283649827231</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.82918026525272 -36.611931209090045, 174.82537892690632 -36.619637071682355)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8291802652527</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.61193120909005</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8253789269063</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.61963707168236</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8272795960795</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.6157841403862</v>
       </c>
     </row>
@@ -38351,27 +38360,28 @@
       <c r="P6" t="n">
         <v>354.2654786209706</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.82804342400803 -36.611655114952484, 174.82495695783857 -36.61956526617893)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.828043424008</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.61165511495248</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.8249569578386</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.61956526617893</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8265001909233</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.6156101905657</v>
       </c>
     </row>
@@ -38428,27 +38438,28 @@
       <c r="P7" t="n">
         <v>358.1759211194933</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (174.82714550937484 -36.611390002971376, 174.82420191659824 -36.61933536686209)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>174.8271455093748</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.61139000297138</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>174.8242019165982</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.61933536686209</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>174.8256737129865</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.61536268491673</v>
       </c>
     </row>
@@ -38505,27 +38516,28 @@
       <c r="P8" t="n">
         <v>364.1934369897397</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (174.8255795500534 -36.61109816111923, 174.82442736038874 -36.6193372354263)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>174.8255795500534</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.61109816111923</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>174.8244273603887</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.6193372354263</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>174.8250034552211</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.61521769827277</v>
       </c>
     </row>
@@ -38582,27 +38594,28 @@
       <c r="P9" t="n">
         <v>357.7552393996573</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (174.824036411501 -36.611080139234616, 174.82454510335256 -36.61936110704658)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>174.824036411501</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.61108013923462</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>174.8245451033526</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.61936110704658</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>174.8242907574268</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.6152206231406</v>
       </c>
     </row>
@@ -38659,27 +38672,28 @@
       <c r="P10" t="n">
         <v>351.1653005389033</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (174.82293926921037 -36.61114581071576, 174.82396300783864 -36.619395836235675)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>174.8229392692104</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.61114581071576</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>174.8239630078386</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.61939583623568</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>174.8234511385245</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.61527082347572</v>
       </c>
     </row>
@@ -38736,27 +38750,28 @@
       <c r="P11" t="n">
         <v>351.3436184486382</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (174.82188126380515 -36.61123318192904, 174.823324215197 -36.619442495304746)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>174.8218812638052</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.61123318192904</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>174.823324215197</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.61944249530475</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>174.8226027395011</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.6153378386169</v>
       </c>
     </row>
@@ -38813,27 +38828,28 @@
       <c r="P12" t="n">
         <v>354.0516182703143</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (174.82068232483354 -36.61139100405601, 174.82292487705135 -36.61948317704476)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>174.8206823248335</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.61139100405601</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>174.8229248770513</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.61948317704476</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>174.8218036009424</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.61543709055039</v>
       </c>
     </row>
@@ -38890,27 +38906,28 @@
       <c r="P13" t="n">
         <v>354.5395609755245</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (174.8193970320839 -36.61166779721816, 174.822705095503 -36.61951961832365)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>174.8193970320839</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.61166779721816</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>174.822705095503</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.61951961832365</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>174.8210510637934</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.61559370777091</v>
       </c>
     </row>
@@ -38967,27 +38984,28 @@
       <c r="P14" t="n">
         <v>363.1343324711198</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (174.81834692366527 -36.611993270403815, 174.82220995986253 -36.61967912782427)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>174.8183469236653</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.61199327040381</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>174.8222099598625</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.61967912782427</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>174.8202784417639</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.61583619911404</v>
       </c>
     </row>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O649"/>
+  <dimension ref="A1:O656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30647,8 +30647,12 @@
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
-      <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr"/>
+      <c r="C649" t="n">
+        <v>427.02</v>
+      </c>
+      <c r="D649" t="n">
+        <v>405.7145454545454</v>
+      </c>
       <c r="E649" t="n">
         <v>396.9866666666667</v>
       </c>
@@ -30673,11 +30677,360 @@
       <c r="L649" t="n">
         <v>356.19</v>
       </c>
-      <c r="M649" t="inlineStr"/>
+      <c r="M649" t="n">
+        <v>363.5446153846154</v>
+      </c>
       <c r="N649" t="n">
         <v>364.4445454545455</v>
       </c>
       <c r="O649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="n">
+        <v>418.05</v>
+      </c>
+      <c r="D650" t="n">
+        <v>398.0663636363636</v>
+      </c>
+      <c r="E650" t="n">
+        <v>384.0533333333333</v>
+      </c>
+      <c r="F650" t="n">
+        <v>362.7600000000001</v>
+      </c>
+      <c r="G650" t="n">
+        <v>370.61</v>
+      </c>
+      <c r="H650" t="n">
+        <v>362.83</v>
+      </c>
+      <c r="I650" t="n">
+        <v>360.7763636363636</v>
+      </c>
+      <c r="J650" t="n">
+        <v>352.05</v>
+      </c>
+      <c r="K650" t="n">
+        <v>350.81</v>
+      </c>
+      <c r="L650" t="n">
+        <v>357.12</v>
+      </c>
+      <c r="M650" t="n">
+        <v>360.3807692307692</v>
+      </c>
+      <c r="N650" t="n">
+        <v>363.1663636363636</v>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="n">
+        <v>422.85</v>
+      </c>
+      <c r="D651" t="n">
+        <v>396.6845454545455</v>
+      </c>
+      <c r="E651" t="n">
+        <v>395.6166666666667</v>
+      </c>
+      <c r="F651" t="n">
+        <v>368.19</v>
+      </c>
+      <c r="G651" t="n">
+        <v>369.98</v>
+      </c>
+      <c r="H651" t="n">
+        <v>362.16</v>
+      </c>
+      <c r="I651" t="n">
+        <v>356.4245454545455</v>
+      </c>
+      <c r="J651" t="n">
+        <v>350.7</v>
+      </c>
+      <c r="K651" t="n">
+        <v>346.96</v>
+      </c>
+      <c r="L651" t="n">
+        <v>354.66</v>
+      </c>
+      <c r="M651" t="n">
+        <v>356.1346153846154</v>
+      </c>
+      <c r="N651" t="n">
+        <v>361.5945454545454</v>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>365.23</v>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="n">
+        <v>367.1518181818182</v>
+      </c>
+      <c r="E652" t="n">
+        <v>371.9633333333333</v>
+      </c>
+      <c r="F652" t="n">
+        <v>351.61</v>
+      </c>
+      <c r="G652" t="n">
+        <v>363.8</v>
+      </c>
+      <c r="H652" t="n">
+        <v>367.33</v>
+      </c>
+      <c r="I652" t="n">
+        <v>357.8718181818182</v>
+      </c>
+      <c r="J652" t="n">
+        <v>350.82</v>
+      </c>
+      <c r="K652" t="n">
+        <v>357.6</v>
+      </c>
+      <c r="L652" t="n">
+        <v>351.55</v>
+      </c>
+      <c r="M652" t="n">
+        <v>356.04</v>
+      </c>
+      <c r="N652" t="n">
+        <v>360.3618181818182</v>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="n">
+        <v>429.45</v>
+      </c>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="n">
+        <v>398.9033333333333</v>
+      </c>
+      <c r="F653" t="n">
+        <v>369.54</v>
+      </c>
+      <c r="G653" t="n">
+        <v>371.55</v>
+      </c>
+      <c r="H653" t="n">
+        <v>362.22</v>
+      </c>
+      <c r="I653" t="n">
+        <v>356.8572727272727</v>
+      </c>
+      <c r="J653" t="n">
+        <v>351.79</v>
+      </c>
+      <c r="K653" t="n">
+        <v>353.03</v>
+      </c>
+      <c r="L653" t="n">
+        <v>353.83</v>
+      </c>
+      <c r="M653" t="n">
+        <v>354.0569230769231</v>
+      </c>
+      <c r="N653" t="n">
+        <v>362.4372727272727</v>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>367.5133333333333</v>
+      </c>
+      <c r="C654" t="n">
+        <v>366.53</v>
+      </c>
+      <c r="D654" t="n">
+        <v>366.4754545454546</v>
+      </c>
+      <c r="E654" t="n">
+        <v>366.6055555555556</v>
+      </c>
+      <c r="F654" t="n">
+        <v>361.26</v>
+      </c>
+      <c r="G654" t="n">
+        <v>359.9966666666667</v>
+      </c>
+      <c r="H654" t="n">
+        <v>373.97</v>
+      </c>
+      <c r="I654" t="n">
+        <v>359.9154545454546</v>
+      </c>
+      <c r="J654" t="n">
+        <v>372.9066666666667</v>
+      </c>
+      <c r="K654" t="n">
+        <v>353.3066666666667</v>
+      </c>
+      <c r="L654" t="n">
+        <v>358.9566666666667</v>
+      </c>
+      <c r="M654" t="n">
+        <v>352.4761538461539</v>
+      </c>
+      <c r="N654" t="n">
+        <v>365.7554545454545</v>
+      </c>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>372.8933333333333</v>
+      </c>
+      <c r="C655" t="n">
+        <v>374.17</v>
+      </c>
+      <c r="D655" t="n">
+        <v>361.7636363636364</v>
+      </c>
+      <c r="E655" t="n">
+        <v>362.3755555555555</v>
+      </c>
+      <c r="F655" t="n">
+        <v>357.03</v>
+      </c>
+      <c r="G655" t="n">
+        <v>363.9066666666667</v>
+      </c>
+      <c r="H655" t="n">
+        <v>367.18</v>
+      </c>
+      <c r="I655" t="n">
+        <v>364.2736363636364</v>
+      </c>
+      <c r="J655" t="n">
+        <v>356.9666666666667</v>
+      </c>
+      <c r="K655" t="n">
+        <v>353.0966666666667</v>
+      </c>
+      <c r="L655" t="n">
+        <v>362.4066666666667</v>
+      </c>
+      <c r="M655" t="n">
+        <v>352.4130769230769</v>
+      </c>
+      <c r="N655" t="n">
+        <v>365.7536363636364</v>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>349.39</v>
+      </c>
+      <c r="C656" t="n">
+        <v>366.76</v>
+      </c>
+      <c r="D656" t="n">
+        <v>363.5218181818182</v>
+      </c>
+      <c r="E656" t="n">
+        <v>364.6566666666667</v>
+      </c>
+      <c r="F656" t="n">
+        <v>355.51</v>
+      </c>
+      <c r="G656" t="n">
+        <v>356.05</v>
+      </c>
+      <c r="H656" t="n">
+        <v>370.35</v>
+      </c>
+      <c r="I656" t="n">
+        <v>352.9818181818182</v>
+      </c>
+      <c r="J656" t="n">
+        <v>360.29</v>
+      </c>
+      <c r="K656" t="n">
+        <v>353.1</v>
+      </c>
+      <c r="L656" t="n">
+        <v>364.68</v>
+      </c>
+      <c r="M656" t="n">
+        <v>357.4461538461539</v>
+      </c>
+      <c r="N656" t="n">
+        <v>366.4418181818182</v>
+      </c>
+      <c r="O656" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -30694,7 +31047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B715"/>
+  <dimension ref="A1:B722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37852,6 +38205,76 @@
       </c>
       <c r="B715" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>-0.84</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>
@@ -38025,28 +38448,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3585623949566213</v>
+        <v>-0.3657273796222962</v>
       </c>
       <c r="J2" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K2" t="n">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02600417674296696</v>
+        <v>0.02748162901774376</v>
       </c>
       <c r="M2" t="n">
-        <v>11.96634320119545</v>
+        <v>11.91289090149962</v>
       </c>
       <c r="N2" t="n">
-        <v>268.8455595493195</v>
+        <v>267.2846484121179</v>
       </c>
       <c r="O2" t="n">
-        <v>16.39651059065067</v>
+        <v>16.34884241810771</v>
       </c>
       <c r="P2" t="n">
-        <v>376.9917286551863</v>
+        <v>377.0586038352906</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38103,28 +38526,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4902292997366753</v>
+        <v>0.5661994382159764</v>
       </c>
       <c r="J3" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K3" t="n">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="L3" t="n">
-        <v>0.05788396029234566</v>
+        <v>0.07151329662142991</v>
       </c>
       <c r="M3" t="n">
-        <v>10.04030026104125</v>
+        <v>10.48619290139884</v>
       </c>
       <c r="N3" t="n">
-        <v>216.7505861221684</v>
+        <v>234.6546888000171</v>
       </c>
       <c r="O3" t="n">
-        <v>14.72245177007445</v>
+        <v>15.31844276680946</v>
       </c>
       <c r="P3" t="n">
-        <v>359.9624036482567</v>
+        <v>359.2527237124814</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38181,28 +38604,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4486692928137277</v>
+        <v>0.480369430842464</v>
       </c>
       <c r="J4" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K4" t="n">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06107638591716102</v>
+        <v>0.06893367806802575</v>
       </c>
       <c r="M4" t="n">
-        <v>8.629333045585657</v>
+        <v>8.776842643229417</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8588401959652</v>
+        <v>175.754054955209</v>
       </c>
       <c r="O4" t="n">
-        <v>13.10949427689586</v>
+        <v>13.25722651821296</v>
       </c>
       <c r="P4" t="n">
-        <v>355.7767060653097</v>
+        <v>355.4780372176311</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38259,28 +38682,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04422412655999422</v>
+        <v>0.08403038469983755</v>
       </c>
       <c r="J5" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K5" t="n">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0007845539730875206</v>
+        <v>0.002796746583983434</v>
       </c>
       <c r="M5" t="n">
-        <v>8.636816525205813</v>
+        <v>8.727538199524638</v>
       </c>
       <c r="N5" t="n">
-        <v>133.8582750945458</v>
+        <v>137.5453648694521</v>
       </c>
       <c r="O5" t="n">
-        <v>11.56971369976569</v>
+        <v>11.72797360456835</v>
       </c>
       <c r="P5" t="n">
-        <v>361.8283649827231</v>
+        <v>361.4430747562778</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38337,28 +38760,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1687779265807441</v>
+        <v>-0.1427555940455182</v>
       </c>
       <c r="J6" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K6" t="n">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01519722151233516</v>
+        <v>0.01100977944074077</v>
       </c>
       <c r="M6" t="n">
-        <v>7.364694537296703</v>
+        <v>7.412978090888345</v>
       </c>
       <c r="N6" t="n">
-        <v>101.3289596132381</v>
+        <v>101.9429812535372</v>
       </c>
       <c r="O6" t="n">
-        <v>10.06622866883313</v>
+        <v>10.09668169516783</v>
       </c>
       <c r="P6" t="n">
-        <v>354.2654786209706</v>
+        <v>354.0162937855487</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38415,28 +38838,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.02676865705577571</v>
+        <v>-0.008699957890235619</v>
       </c>
       <c r="J7" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K7" t="n">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004522928710876117</v>
+        <v>4.849323632283298e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>6.848249925432111</v>
+        <v>6.862296639087862</v>
       </c>
       <c r="N7" t="n">
-        <v>87.38958305124655</v>
+        <v>87.36829643190249</v>
       </c>
       <c r="O7" t="n">
-        <v>9.3482395696327</v>
+        <v>9.347100964037057</v>
       </c>
       <c r="P7" t="n">
-        <v>358.1759211194933</v>
+        <v>358.0037408584859</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38493,28 +38916,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02632598992510821</v>
+        <v>0.03042701205103835</v>
       </c>
       <c r="J8" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K8" t="n">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000537912617933789</v>
+        <v>0.0007352445829907905</v>
       </c>
       <c r="M8" t="n">
-        <v>6.446585010823813</v>
+        <v>6.415442070103696</v>
       </c>
       <c r="N8" t="n">
-        <v>71.2105818509386</v>
+        <v>70.5873688634464</v>
       </c>
       <c r="O8" t="n">
-        <v>8.438636255399246</v>
+        <v>8.401628941071273</v>
       </c>
       <c r="P8" t="n">
-        <v>364.1934369897397</v>
+        <v>364.1542483007896</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38571,28 +38994,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07591459590044725</v>
+        <v>-0.06951853563363106</v>
       </c>
       <c r="J9" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K9" t="n">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005665539660814178</v>
+        <v>0.004866994289364324</v>
       </c>
       <c r="M9" t="n">
-        <v>5.388557705737307</v>
+        <v>5.363198331784782</v>
       </c>
       <c r="N9" t="n">
-        <v>55.71251893635816</v>
+        <v>55.2415797617503</v>
       </c>
       <c r="O9" t="n">
-        <v>7.464081921868098</v>
+        <v>7.432467945558211</v>
       </c>
       <c r="P9" t="n">
-        <v>357.7552393996573</v>
+        <v>357.6943102752468</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38649,28 +39072,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07903282442710421</v>
+        <v>-0.06120982354055299</v>
       </c>
       <c r="J10" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K10" t="n">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006003427419918661</v>
+        <v>0.003622882992739385</v>
       </c>
       <c r="M10" t="n">
-        <v>5.758220328846568</v>
+        <v>5.7787646060267</v>
       </c>
       <c r="N10" t="n">
-        <v>57.12844152951108</v>
+        <v>57.75913587710141</v>
       </c>
       <c r="O10" t="n">
-        <v>7.558335896843371</v>
+        <v>7.599943149596674</v>
       </c>
       <c r="P10" t="n">
-        <v>351.1653005389033</v>
+        <v>350.9954291912081</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38727,28 +39150,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08166764557023583</v>
+        <v>-0.07376175767886517</v>
       </c>
       <c r="J11" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K11" t="n">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005681873173648988</v>
+        <v>0.004747204228711999</v>
       </c>
       <c r="M11" t="n">
-        <v>6.084258932152033</v>
+        <v>6.055617561336839</v>
       </c>
       <c r="N11" t="n">
-        <v>65.00544178905672</v>
+        <v>64.43740529569129</v>
       </c>
       <c r="O11" t="n">
-        <v>8.062595226665959</v>
+        <v>8.027291280107587</v>
       </c>
       <c r="P11" t="n">
-        <v>351.3436184486382</v>
+        <v>351.2684046465312</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38805,28 +39228,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1446047585663589</v>
+        <v>-0.1273046193782343</v>
       </c>
       <c r="J12" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K12" t="n">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01822462883226506</v>
+        <v>0.01435738161422728</v>
       </c>
       <c r="M12" t="n">
-        <v>5.904051815479548</v>
+        <v>5.914292097386394</v>
       </c>
       <c r="N12" t="n">
-        <v>63.05517267132618</v>
+        <v>63.13979486617443</v>
       </c>
       <c r="O12" t="n">
-        <v>7.940728724199447</v>
+        <v>7.946055302234841</v>
       </c>
       <c r="P12" t="n">
-        <v>354.0516182703143</v>
+        <v>353.8865611014513</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38883,28 +39306,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1345711354247596</v>
+        <v>-0.1199492665124665</v>
       </c>
       <c r="J13" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K13" t="n">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01570356262099859</v>
+        <v>0.01277326905963705</v>
       </c>
       <c r="M13" t="n">
-        <v>6.006381843381403</v>
+        <v>5.992209847030489</v>
       </c>
       <c r="N13" t="n">
-        <v>64.36949756853691</v>
+        <v>64.04352325975651</v>
       </c>
       <c r="O13" t="n">
-        <v>8.02306036176576</v>
+        <v>8.002719741422695</v>
       </c>
       <c r="P13" t="n">
-        <v>354.5395609755245</v>
+        <v>354.4019628406951</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38961,28 +39384,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.07003824081682462</v>
+        <v>-0.06427611448810722</v>
       </c>
       <c r="J14" t="n">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="K14" t="n">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003875888928884574</v>
+        <v>0.003351076856082491</v>
       </c>
       <c r="M14" t="n">
-        <v>6.514928348271932</v>
+        <v>6.462174569490192</v>
       </c>
       <c r="N14" t="n">
-        <v>70.74779807743248</v>
+        <v>69.94215160747775</v>
       </c>
       <c r="O14" t="n">
-        <v>8.411171028901533</v>
+        <v>8.363142448115886</v>
       </c>
       <c r="P14" t="n">
-        <v>363.1343324711198</v>
+        <v>363.0792943762453</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39020,7 +39443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O649"/>
+  <dimension ref="A1:O656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83191,8 +83614,16 @@
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
-      <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr"/>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-36.61617904022496,174.82869549381934</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-36.61564114023592,174.82820516147913</t>
+        </is>
+      </c>
       <c r="E649" t="inlineStr">
         <is>
           <t>-36.61525566124753,174.82754039341836</t>
@@ -83233,13 +83664,536 @@
           <t>-36.61452379456728,174.82155044092903</t>
         </is>
       </c>
-      <c r="M649" t="inlineStr"/>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>-36.61477005629728,174.82070395998815</t>
+        </is>
+      </c>
       <c r="N649" t="inlineStr">
         <is>
           <t>-36.61503731248357,174.81987680401923</t>
         </is>
       </c>
       <c r="O649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-36.616118767799655,174.82876231940213</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-36.61558289005013,174.82825086898555</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-36.61514735504035,174.82759382054817</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-36.614773696462244,174.82682665799254</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-36.61459028821337,174.82595994177663</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-36.61434742463925,174.8251251833685</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-36.61432749940521,174.82423587609497</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-36.61430275372502,174.82333098101597</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-36.61436344024766,174.82243142827753</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>-36.61453197416409,174.82155270764943</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>-36.614743058122706,174.82069258561944</t>
+        </is>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>-36.615026636446025,174.81987143819705</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-36.616151020606864,174.82872655990582</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-36.615572365826075,174.82825912708006</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-36.61524418860651,174.82754605284538</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-36.6148203770957,174.82680844403205</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-36.61458484805705,174.825961957202</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-36.61434142456822,174.82512602242952</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-36.614288328558345,174.8242334699447</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-36.61429064785787,174.82332947885405</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-36.6143290869386,174.82242539017128</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>-36.61451033781111,174.8215467118095</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>-36.614706824246504,174.82067732025067</t>
+        </is>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>-36.61501350780483,174.81986483968817</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>-36.61629113423337,174.82975075630256</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>-36.61534743810626,174.82843562159002</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>-36.61504611104821,174.82764376376832</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr">
+        <is>
+          <t>-36.614677842114936,174.82686405860096</t>
+        </is>
+      </c>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>-36.61453148271241,174.8259817275509</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>-36.614387723623544,174.82511954788123</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>-36.61430135550391,174.8242342701514</t>
+        </is>
+      </c>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-36.614291723934954,174.82332961237955</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-36.614424026991166,174.82244207731588</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>-36.61448298453494,174.82153913170808</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>-36.61470601686119,174.8206769800986</t>
+        </is>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>-36.615003211426576,174.81985966468795</t>
+        </is>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr"/>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-36.616195368200344,174.82867739054996</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr"/>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-36.61527171177897,174.8275324757258</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-36.61483198277766,174.8268039156961</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-36.614598405271956,174.82595693463352</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-36.614341961888016,174.8251259472897</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-36.614292223549604,174.82423370920247</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-36.61430042222468,174.82333069171065</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-36.61438324916844,174.82243490999346</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>-36.614503037740704,174.82154468882368</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>-36.61468909458984,174.8206698507342</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>-36.61502054670043,174.81986837746564</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-04 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-36.61630513015726,174.82973204391982</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-36.61577258703458,174.82914613612598</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-36.615342286769845,174.82843966368605</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-36.61500124397754,174.82766589645553</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-36.61476080125919,174.82683168946966</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-36.614498640284694,174.82599389472688</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-36.61444718701303,174.8251112323976</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-36.614319750336506,174.82423540009214</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-36.61448978189261,174.82335418855982</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-36.61438571784774,174.82243534390113</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>-36.614548128134636,174.82155718422058</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>-36.61467560534676,174.82066416770942</t>
+        </is>
+      </c>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>-36.61504826187598,174.81988230723246</t>
+        </is>
+      </c>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-11 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-36.61633810740346,174.82968795369484</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-36.61582392292005,174.829089219421</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-36.6153064005073,174.8284678225204</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-36.614965821134156,174.8276833703369</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-36.61472443678554,174.82684587822652</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-36.61453240379712,174.8259813863153</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-36.61438638032406,174.8251197357309</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-36.614358978462384,174.82423780976353</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-36.614346842993776,174.82333645185713</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-36.61438384403093,174.82243501454954</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr">
+        <is>
+          <t>-36.614578471799106,174.8215655930303</t>
+        </is>
+      </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>-36.61467506708984,174.82066394094159</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>-36.615048246689575,174.8198822995997</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:12+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>-36.61619404126572,174.829880568149</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>-36.615774132487,174.82914442266608</t>
+        </is>
+      </c>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>-36.61531979121452,174.82845731525236</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>-36.61498492360291,174.8276739472029</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr">
+        <is>
+          <t>-36.6147113696457,174.82685097678382</t>
+        </is>
+      </c>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>-36.614464560148164,174.82600652042763</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>-36.614414768719456,174.82511576584034</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-36.61425734046594,174.8242315664394</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-36.61437664434994,174.82334014977897</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>-36.614383873774045,174.82243501977732</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>-36.61459846636783,174.82157113391168</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>-36.61471801605092,174.8206820353675</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>-36.615053994740805,174.8198851885965</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O656"/>
+  <dimension ref="A1:O660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31036,6 +31036,192 @@
         </is>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>350.3733333333333</v>
+      </c>
+      <c r="C657" t="n">
+        <v>355.79</v>
+      </c>
+      <c r="D657" t="n">
+        <v>352.1245454545455</v>
+      </c>
+      <c r="E657" t="n">
+        <v>350.4755555555556</v>
+      </c>
+      <c r="F657" t="n">
+        <v>343.15</v>
+      </c>
+      <c r="G657" t="n">
+        <v>343.3066666666667</v>
+      </c>
+      <c r="H657" t="n">
+        <v>365.4</v>
+      </c>
+      <c r="I657" t="n">
+        <v>348.7345454545454</v>
+      </c>
+      <c r="J657" t="n">
+        <v>338.8466666666667</v>
+      </c>
+      <c r="K657" t="n">
+        <v>343.2166666666667</v>
+      </c>
+      <c r="L657" t="n">
+        <v>338.2766666666667</v>
+      </c>
+      <c r="M657" t="n">
+        <v>348.01</v>
+      </c>
+      <c r="N657" t="n">
+        <v>353.7045454545454</v>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="n">
+        <v>358.3</v>
+      </c>
+      <c r="G658" t="n">
+        <v>373.6633333333333</v>
+      </c>
+      <c r="H658" t="n">
+        <v>379.48</v>
+      </c>
+      <c r="I658" t="n">
+        <v>356.4772727272727</v>
+      </c>
+      <c r="J658" t="n">
+        <v>351.9333333333333</v>
+      </c>
+      <c r="K658" t="n">
+        <v>354.1633333333333</v>
+      </c>
+      <c r="L658" t="n">
+        <v>358.7733333333333</v>
+      </c>
+      <c r="M658" t="n">
+        <v>362.7292307692308</v>
+      </c>
+      <c r="N658" t="n">
+        <v>370.0772727272728</v>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:07+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="n">
+        <v>378.42</v>
+      </c>
+      <c r="G659" t="n">
+        <v>372.77</v>
+      </c>
+      <c r="H659" t="n">
+        <v>372.59</v>
+      </c>
+      <c r="I659" t="n">
+        <v>358.9609090909091</v>
+      </c>
+      <c r="J659" t="n">
+        <v>353.39</v>
+      </c>
+      <c r="K659" t="n">
+        <v>358.01</v>
+      </c>
+      <c r="L659" t="n">
+        <v>350.82</v>
+      </c>
+      <c r="M659" t="n">
+        <v>361.3923076923077</v>
+      </c>
+      <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>363.79</v>
+      </c>
+      <c r="C660" t="n">
+        <v>358.49</v>
+      </c>
+      <c r="D660" t="n">
+        <v>353.5754545454545</v>
+      </c>
+      <c r="E660" t="n">
+        <v>349.0766666666667</v>
+      </c>
+      <c r="F660" t="n">
+        <v>341.27</v>
+      </c>
+      <c r="G660" t="n">
+        <v>353.97</v>
+      </c>
+      <c r="H660" t="n">
+        <v>362.98</v>
+      </c>
+      <c r="I660" t="n">
+        <v>350.2254545454546</v>
+      </c>
+      <c r="J660" t="n">
+        <v>335.83</v>
+      </c>
+      <c r="K660" t="n">
+        <v>339.67</v>
+      </c>
+      <c r="L660" t="n">
+        <v>341.17</v>
+      </c>
+      <c r="M660" t="n">
+        <v>347.1723076923077</v>
+      </c>
+      <c r="N660" t="n">
+        <v>358.2654545454546</v>
+      </c>
+      <c r="O660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31047,7 +31233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B722"/>
+  <dimension ref="A1:B726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38275,6 +38461,46 @@
       </c>
       <c r="B722" t="n">
         <v>0.12</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.73</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>
@@ -38448,28 +38674,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3657273796222962</v>
+        <v>-0.3749933193835698</v>
       </c>
       <c r="J2" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K2" t="n">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02748162901774376</v>
+        <v>0.0290612901625299</v>
       </c>
       <c r="M2" t="n">
-        <v>11.91289090149962</v>
+        <v>11.89914107841624</v>
       </c>
       <c r="N2" t="n">
-        <v>267.2846484121179</v>
+        <v>266.7916837034177</v>
       </c>
       <c r="O2" t="n">
-        <v>16.34884241810771</v>
+        <v>16.33375901938735</v>
       </c>
       <c r="P2" t="n">
-        <v>377.0586038352906</v>
+        <v>377.1453702633161</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38526,28 +38752,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5661994382159764</v>
+        <v>0.5533006597500459</v>
       </c>
       <c r="J3" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K3" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07151329662142991</v>
+        <v>0.06877990714227644</v>
       </c>
       <c r="M3" t="n">
-        <v>10.48619290139884</v>
+        <v>10.48210194935295</v>
       </c>
       <c r="N3" t="n">
-        <v>234.6546888000171</v>
+        <v>234.8167969000251</v>
       </c>
       <c r="O3" t="n">
-        <v>15.31844276680946</v>
+        <v>15.32373312545037</v>
       </c>
       <c r="P3" t="n">
-        <v>359.2527237124814</v>
+        <v>359.3743659548418</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38604,28 +38830,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.480369430842464</v>
+        <v>0.4695531669889322</v>
       </c>
       <c r="J4" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K4" t="n">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06893367806802575</v>
+        <v>0.06627528398095672</v>
       </c>
       <c r="M4" t="n">
-        <v>8.776842643229417</v>
+        <v>8.779357073245768</v>
       </c>
       <c r="N4" t="n">
-        <v>175.754054955209</v>
+        <v>175.9261338985791</v>
       </c>
       <c r="O4" t="n">
-        <v>13.25722651821296</v>
+        <v>13.26371493581565</v>
       </c>
       <c r="P4" t="n">
-        <v>355.4780372176311</v>
+        <v>355.581135987445</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38682,28 +38908,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08403038469983755</v>
+        <v>0.07335915612920035</v>
       </c>
       <c r="J5" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K5" t="n">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002796746583983434</v>
+        <v>0.002139723777745073</v>
       </c>
       <c r="M5" t="n">
-        <v>8.727538199524638</v>
+        <v>8.743968777168549</v>
       </c>
       <c r="N5" t="n">
-        <v>137.5453648694521</v>
+        <v>137.7457607196181</v>
       </c>
       <c r="O5" t="n">
-        <v>11.72797360456835</v>
+        <v>11.73651399349986</v>
       </c>
       <c r="P5" t="n">
-        <v>361.4430747562778</v>
+        <v>361.5471782775097</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38760,28 +38986,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1427555940455182</v>
+        <v>-0.1360580319741873</v>
       </c>
       <c r="J6" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K6" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01100977944074077</v>
+        <v>0.009994150730227691</v>
       </c>
       <c r="M6" t="n">
-        <v>7.412978090888345</v>
+        <v>7.453893568094196</v>
       </c>
       <c r="N6" t="n">
-        <v>101.9429812535372</v>
+        <v>102.9426628340226</v>
       </c>
       <c r="O6" t="n">
-        <v>10.09668169516783</v>
+        <v>10.14606637244319</v>
       </c>
       <c r="P6" t="n">
-        <v>354.0162937855487</v>
+        <v>353.9516368233992</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38838,28 +39064,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.008699957890235619</v>
+        <v>-0.004460226437221215</v>
       </c>
       <c r="J7" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K7" t="n">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="L7" t="n">
-        <v>4.849323632283298e-05</v>
+        <v>1.276002129657616e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>6.862296639087862</v>
+        <v>6.900079861534787</v>
       </c>
       <c r="N7" t="n">
-        <v>87.36829643190249</v>
+        <v>87.97390508063449</v>
       </c>
       <c r="O7" t="n">
-        <v>9.347100964037057</v>
+        <v>9.379440552646757</v>
       </c>
       <c r="P7" t="n">
-        <v>358.0037408584859</v>
+        <v>357.962946795983</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38916,28 +39142,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03042701205103835</v>
+        <v>0.03739790381306548</v>
       </c>
       <c r="J8" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K8" t="n">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007352445829907905</v>
+        <v>0.001119565266397005</v>
       </c>
       <c r="M8" t="n">
-        <v>6.415442070103696</v>
+        <v>6.41492182860621</v>
       </c>
       <c r="N8" t="n">
-        <v>70.5873688634464</v>
+        <v>70.56907287706726</v>
       </c>
       <c r="O8" t="n">
-        <v>8.401628941071273</v>
+        <v>8.400540034847001</v>
       </c>
       <c r="P8" t="n">
-        <v>364.1542483007896</v>
+        <v>364.0874653463235</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38994,28 +39220,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.06951853563363106</v>
+        <v>-0.07269055502045704</v>
       </c>
       <c r="J9" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K9" t="n">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004866994289364324</v>
+        <v>0.005384790216742985</v>
       </c>
       <c r="M9" t="n">
-        <v>5.363198331784782</v>
+        <v>5.354934827996211</v>
       </c>
       <c r="N9" t="n">
-        <v>55.2415797617503</v>
+        <v>55.01573786963969</v>
       </c>
       <c r="O9" t="n">
-        <v>7.432467945558211</v>
+        <v>7.417259458158362</v>
       </c>
       <c r="P9" t="n">
-        <v>357.6943102752468</v>
+        <v>357.7247133168489</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39072,28 +39298,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06120982354055299</v>
+        <v>-0.0672569710551294</v>
       </c>
       <c r="J10" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K10" t="n">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003622882992739385</v>
+        <v>0.004395172775920941</v>
       </c>
       <c r="M10" t="n">
-        <v>5.7787646060267</v>
+        <v>5.79116657674177</v>
       </c>
       <c r="N10" t="n">
-        <v>57.75913587710141</v>
+        <v>57.90999350917337</v>
       </c>
       <c r="O10" t="n">
-        <v>7.599943149596674</v>
+        <v>7.609861595927574</v>
       </c>
       <c r="P10" t="n">
-        <v>350.9954291912081</v>
+        <v>351.0533899188396</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39150,28 +39376,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07376175767886517</v>
+        <v>-0.0745838043225497</v>
       </c>
       <c r="J11" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K11" t="n">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004747204228711999</v>
+        <v>0.004895392677959909</v>
       </c>
       <c r="M11" t="n">
-        <v>6.055617561336839</v>
+        <v>6.064765357146193</v>
       </c>
       <c r="N11" t="n">
-        <v>64.43740529569129</v>
+        <v>64.38775395671948</v>
       </c>
       <c r="O11" t="n">
-        <v>8.027291280107587</v>
+        <v>8.024198025766779</v>
       </c>
       <c r="P11" t="n">
-        <v>351.2684046465312</v>
+        <v>351.2762800279942</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39228,28 +39454,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1273046193782343</v>
+        <v>-0.1318296117583218</v>
       </c>
       <c r="J12" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K12" t="n">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01435738161422728</v>
+        <v>0.01547388982841524</v>
       </c>
       <c r="M12" t="n">
-        <v>5.914292097386394</v>
+        <v>5.927345956001052</v>
       </c>
       <c r="N12" t="n">
-        <v>63.13979486617443</v>
+        <v>63.23666119753749</v>
       </c>
       <c r="O12" t="n">
-        <v>7.946055302234841</v>
+        <v>7.952148212749652</v>
       </c>
       <c r="P12" t="n">
-        <v>353.8865611014513</v>
+        <v>353.9300020276707</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39306,28 +39532,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1199492665124665</v>
+        <v>-0.1152762003517727</v>
       </c>
       <c r="J13" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K13" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01277326905963705</v>
+        <v>0.01189683941980224</v>
       </c>
       <c r="M13" t="n">
-        <v>5.992209847030489</v>
+        <v>5.99920982553783</v>
       </c>
       <c r="N13" t="n">
-        <v>64.04352325975651</v>
+        <v>64.04815468640025</v>
       </c>
       <c r="O13" t="n">
-        <v>8.002719741422695</v>
+        <v>8.003009101981595</v>
       </c>
       <c r="P13" t="n">
-        <v>354.4019628406951</v>
+        <v>354.3575695807888</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39384,28 +39610,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06427611448810722</v>
+        <v>-0.06506855579966885</v>
       </c>
       <c r="J14" t="n">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="K14" t="n">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003351076856082491</v>
+        <v>0.003460534728364717</v>
       </c>
       <c r="M14" t="n">
-        <v>6.462174569490192</v>
+        <v>6.462500336272359</v>
       </c>
       <c r="N14" t="n">
-        <v>69.94215160747775</v>
+        <v>69.81922565098373</v>
       </c>
       <c r="O14" t="n">
-        <v>8.363142448115886</v>
+        <v>8.355789947753816</v>
       </c>
       <c r="P14" t="n">
-        <v>363.0792943762453</v>
+        <v>363.0869024979564</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39443,7 +39669,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O656"/>
+  <dimension ref="A1:O660"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84199,6 +84425,278 @@
         </is>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-28 22:05:03+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>-36.616200068716054,174.8298725095527</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>-36.61570042110004,174.82922614717833</t>
+        </is>
+      </c>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>-36.615232987013044,174.82852542771158</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>-36.61486616820538,174.82773252845482</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr">
+        <is>
+          <t>-36.61460511315911,174.8268924360442</t>
+        </is>
+      </c>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>-36.614354519293656,174.82604728729316</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>-36.61437043983698,174.8251219648797</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>-36.614219110635226,174.82422921809874</t>
+        </is>
+      </c>
+      <c r="J657" t="inlineStr">
+        <is>
+          <t>-36.614184355352855,174.8233162895254</t>
+        </is>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>-36.614295685408905,174.82241951936032</t>
+        </is>
+      </c>
+      <c r="L657" t="inlineStr">
+        <is>
+          <t>-36.61436624203375,174.8215067802574</t>
+        </is>
+      </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>-36.61463749413057,174.82064811144724</t>
+        </is>
+      </c>
+      <c r="N657" t="inlineStr">
+        <is>
+          <t>-36.61494760642324,174.81983171742183</t>
+        </is>
+      </c>
+      <c r="O657" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr"/>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr"/>
+      <c r="E658" t="inlineStr"/>
+      <c r="F658" t="inlineStr">
+        <is>
+          <t>-36.6147353547246,174.8268416182465</t>
+        </is>
+      </c>
+      <c r="G658" t="inlineStr">
+        <is>
+          <t>-36.614616654261575,174.82595017389116</t>
+        </is>
+      </c>
+      <c r="H658" t="inlineStr">
+        <is>
+          <t>-36.61449653087932,174.82510433204075</t>
+        </is>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>-36.61428880315812,174.82423349909797</t>
+        </is>
+      </c>
+      <c r="J658" t="inlineStr">
+        <is>
+          <t>-36.614301707538964,174.82333085119947</t>
+        </is>
+      </c>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>-36.614393361830615,174.8224366874468</t>
+        </is>
+      </c>
+      <c r="L658" t="inlineStr">
+        <is>
+          <t>-36.614546515669346,174.82155673737583</t>
+        </is>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>-36.614763098343346,174.82070102859154</t>
+        </is>
+      </c>
+      <c r="N658" t="inlineStr">
+        <is>
+          <t>-36.61508435993994,174.8199004502922</t>
+        </is>
+      </c>
+      <c r="O658" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-22 22:05:07+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr"/>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr"/>
+      <c r="E659" t="inlineStr"/>
+      <c r="F659" t="inlineStr">
+        <is>
+          <t>-36.614908322370674,174.82677412927632</t>
+        </is>
+      </c>
+      <c r="G659" t="inlineStr">
+        <is>
+          <t>-36.614608940177675,174.82595303174477</t>
+        </is>
+      </c>
+      <c r="H659" t="inlineStr">
+        <is>
+          <t>-36.614434828658055,174.82511296061648</t>
+        </is>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>-36.614311158444075,174.82423487231725</t>
+        </is>
+      </c>
+      <c r="J659" t="inlineStr">
+        <is>
+          <t>-36.614314769919005,174.82333247205128</t>
+        </is>
+      </c>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>-36.614427685395356,174.82244272033648</t>
+        </is>
+      </c>
+      <c r="L659" t="inlineStr">
+        <is>
+          <t>-36.61447656399091,174.82153735245683</t>
+        </is>
+      </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>-36.61475168992436,174.82069622220857</t>
+        </is>
+      </c>
+      <c r="N659" t="inlineStr"/>
+      <c r="O659" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-29 22:11:15+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>-36.61628230760548,174.82976255739302</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>-36.61571856337882,174.82920603268195</t>
+        </is>
+      </c>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>-36.61524403746615,174.8285167567871</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>-36.61485445363487,174.82773830716488</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr">
+        <is>
+          <t>-36.614588951168095,174.82689874213582</t>
+        </is>
+      </c>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>-36.614446598994654,174.82601317450892</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>-36.61434876793872,174.82512499551902</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>-36.61423253035325,174.82423004243032</t>
+        </is>
+      </c>
+      <c r="J660" t="inlineStr">
+        <is>
+          <t>-36.61415730396943,174.82331293285543</t>
+        </is>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>-36.61426403872305,174.82241395699435</t>
+        </is>
+      </c>
+      <c r="L660" t="inlineStr">
+        <is>
+          <t>-36.614391689672054,174.8215138322473</t>
+        </is>
+      </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>-36.61463034581567,174.82064509986287</t>
+        </is>
+      </c>
+      <c r="N660" t="inlineStr">
+        <is>
+          <t>-36.61498570150834,174.81985086413783</t>
+        </is>
+      </c>
+      <c r="O660" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O660"/>
+  <dimension ref="A1:O661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31222,6 +31222,53 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="n">
+        <v>386.1918181818182</v>
+      </c>
+      <c r="E661" t="n">
+        <v>381.6366666666667</v>
+      </c>
+      <c r="F661" t="n">
+        <v>364.48</v>
+      </c>
+      <c r="G661" t="n">
+        <v>360.35</v>
+      </c>
+      <c r="H661" t="n">
+        <v>356.37</v>
+      </c>
+      <c r="I661" t="n">
+        <v>351.3618181818182</v>
+      </c>
+      <c r="J661" t="n">
+        <v>345.79</v>
+      </c>
+      <c r="K661" t="n">
+        <v>342.25</v>
+      </c>
+      <c r="L661" t="n">
+        <v>350.72</v>
+      </c>
+      <c r="M661" t="n">
+        <v>352.3053846153846</v>
+      </c>
+      <c r="N661" t="n">
+        <v>359.9518181818182</v>
+      </c>
+      <c r="O661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31233,7 +31280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B726"/>
+  <dimension ref="A1:B727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38501,6 +38548,16 @@
       </c>
       <c r="B726" t="n">
         <v>1.02</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>-0.87</v>
       </c>
     </row>
   </sheetData>
@@ -38677,7 +38734,7 @@
         <v>-0.3749933193835698</v>
       </c>
       <c r="J2" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K2" t="n">
         <v>454</v>
@@ -38755,7 +38812,7 @@
         <v>0.5533006597500459</v>
       </c>
       <c r="J3" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K3" t="n">
         <v>513</v>
@@ -38830,28 +38887,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4695531669889322</v>
+        <v>0.4762356876030878</v>
       </c>
       <c r="J4" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K4" t="n">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06627528398095672</v>
+        <v>0.06807485116387657</v>
       </c>
       <c r="M4" t="n">
-        <v>8.779357073245768</v>
+        <v>8.809654618833171</v>
       </c>
       <c r="N4" t="n">
-        <v>175.9261338985791</v>
+        <v>176.2296116091309</v>
       </c>
       <c r="O4" t="n">
-        <v>13.26371493581565</v>
+        <v>13.27515015392033</v>
       </c>
       <c r="P4" t="n">
-        <v>355.581135987445</v>
+        <v>355.5172270013618</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38908,28 +38965,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07335915612920035</v>
+        <v>0.08037913898938699</v>
       </c>
       <c r="J5" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K5" t="n">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002139723777745073</v>
+        <v>0.002566825951272111</v>
       </c>
       <c r="M5" t="n">
-        <v>8.743968777168549</v>
+        <v>8.763883712410651</v>
       </c>
       <c r="N5" t="n">
-        <v>137.7457607196181</v>
+        <v>138.115224168486</v>
       </c>
       <c r="O5" t="n">
-        <v>11.73651399349986</v>
+        <v>11.75224336748036</v>
       </c>
       <c r="P5" t="n">
-        <v>361.5471782775097</v>
+        <v>361.4784871858376</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38986,28 +39043,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1360580319741873</v>
+        <v>-0.1313062767809915</v>
       </c>
       <c r="J6" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K6" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009994150730227691</v>
+        <v>0.009318654465642173</v>
       </c>
       <c r="M6" t="n">
-        <v>7.453893568094196</v>
+        <v>7.466296854296271</v>
       </c>
       <c r="N6" t="n">
-        <v>102.9426628340226</v>
+        <v>103.1038406194072</v>
       </c>
       <c r="O6" t="n">
-        <v>10.14606637244319</v>
+        <v>10.15400613646689</v>
       </c>
       <c r="P6" t="n">
-        <v>353.9516368233992</v>
+        <v>353.9056619609395</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39064,28 +39121,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.004460226437221215</v>
+        <v>-0.003619983431512195</v>
       </c>
       <c r="J7" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K7" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L7" t="n">
-        <v>1.276002129657616e-05</v>
+        <v>8.435512471760553e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>6.900079861534787</v>
+        <v>6.89255179610895</v>
       </c>
       <c r="N7" t="n">
-        <v>87.97390508063449</v>
+        <v>87.83296093327466</v>
       </c>
       <c r="O7" t="n">
-        <v>9.379440552646757</v>
+        <v>9.371924078505687</v>
       </c>
       <c r="P7" t="n">
-        <v>357.962946795983</v>
+        <v>357.9548506466498</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39142,28 +39199,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03739790381306548</v>
+        <v>0.03447002598445032</v>
       </c>
       <c r="J8" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K8" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001119565266397005</v>
+        <v>0.0009530840282642172</v>
       </c>
       <c r="M8" t="n">
-        <v>6.41492182860621</v>
+        <v>6.418229680466615</v>
       </c>
       <c r="N8" t="n">
-        <v>70.56907287706726</v>
+        <v>70.57668365897449</v>
       </c>
       <c r="O8" t="n">
-        <v>8.400540034847001</v>
+        <v>8.400993016243644</v>
       </c>
       <c r="P8" t="n">
-        <v>364.0874653463235</v>
+        <v>364.1156215971614</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39220,28 +39277,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07269055502045704</v>
+        <v>-0.07423613916894832</v>
       </c>
       <c r="J9" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K9" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005384790216742985</v>
+        <v>0.005632672432536956</v>
       </c>
       <c r="M9" t="n">
-        <v>5.354934827996211</v>
+        <v>5.353619816059275</v>
       </c>
       <c r="N9" t="n">
-        <v>55.01573786963969</v>
+        <v>54.95415535961072</v>
       </c>
       <c r="O9" t="n">
-        <v>7.417259458158362</v>
+        <v>7.413106997717672</v>
       </c>
       <c r="P9" t="n">
-        <v>357.7247133168489</v>
+        <v>357.7395849826053</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39298,28 +39355,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0672569710551294</v>
+        <v>-0.06846386598977371</v>
       </c>
       <c r="J10" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K10" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004395172775920941</v>
+        <v>0.004569096895431835</v>
       </c>
       <c r="M10" t="n">
-        <v>5.79116657674177</v>
+        <v>5.787032315051764</v>
       </c>
       <c r="N10" t="n">
-        <v>57.90999350917337</v>
+        <v>57.83012935297949</v>
       </c>
       <c r="O10" t="n">
-        <v>7.609861595927574</v>
+        <v>7.604612373617704</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0533899188396</v>
+        <v>351.0649926426415</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39376,28 +39433,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0745838043225497</v>
+        <v>-0.07698774975659846</v>
       </c>
       <c r="J11" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K11" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L11" t="n">
-        <v>0.004895392677959909</v>
+        <v>0.005226636253342187</v>
       </c>
       <c r="M11" t="n">
-        <v>6.064765357146193</v>
+        <v>6.067196072733096</v>
       </c>
       <c r="N11" t="n">
-        <v>64.38775395671948</v>
+        <v>64.36278616836555</v>
       </c>
       <c r="O11" t="n">
-        <v>8.024198025766779</v>
+        <v>8.022642093996563</v>
       </c>
       <c r="P11" t="n">
-        <v>351.2762800279942</v>
+        <v>351.2993642295575</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39454,28 +39511,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1318296117583218</v>
+        <v>-0.1317658575263614</v>
       </c>
       <c r="J12" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K12" t="n">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01547388982841524</v>
+        <v>0.01551538945408848</v>
       </c>
       <c r="M12" t="n">
-        <v>5.927345956001052</v>
+        <v>5.917129288605037</v>
       </c>
       <c r="N12" t="n">
-        <v>63.23666119753749</v>
+        <v>63.12440332487461</v>
       </c>
       <c r="O12" t="n">
-        <v>7.952148212749652</v>
+        <v>7.945086741180024</v>
       </c>
       <c r="P12" t="n">
-        <v>353.9300020276707</v>
+        <v>353.9293879960155</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39532,28 +39589,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1152762003517727</v>
+        <v>-0.1149696088095234</v>
       </c>
       <c r="J13" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K13" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01189683941980224</v>
+        <v>0.0118769407116357</v>
       </c>
       <c r="M13" t="n">
-        <v>5.99920982553783</v>
+        <v>5.990076546063928</v>
       </c>
       <c r="N13" t="n">
-        <v>64.04815468640025</v>
+        <v>63.93608640348335</v>
       </c>
       <c r="O13" t="n">
-        <v>8.003009101981595</v>
+        <v>7.996004402417707</v>
       </c>
       <c r="P13" t="n">
-        <v>354.3575695807888</v>
+        <v>354.354646626678</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39610,28 +39667,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06506855579966885</v>
+        <v>-0.06558627716293433</v>
       </c>
       <c r="J14" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K14" t="n">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003460534728364717</v>
+        <v>0.003529024134373393</v>
       </c>
       <c r="M14" t="n">
-        <v>6.462500336272359</v>
+        <v>6.453126949856117</v>
       </c>
       <c r="N14" t="n">
-        <v>69.81922565098373</v>
+        <v>69.69219524740058</v>
       </c>
       <c r="O14" t="n">
-        <v>8.355789947753816</v>
+        <v>8.348185146928676</v>
       </c>
       <c r="P14" t="n">
-        <v>363.0869024979564</v>
+        <v>363.0918917979487</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39669,7 +39726,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O660"/>
+  <dimension ref="A1:O661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41579,7 +41636,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>-36.614214754531474,174.8233200616097</t>
+          <t>-36.61421475453147,174.8233200616097</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -49831,7 +49888,7 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr">
         <is>
-          <t>-36.615770302452695,174.8291486690666</t>
+          <t>-36.61577030245269,174.8291486690666</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -54934,7 +54991,7 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>-36.614388440049915,174.82511944769476</t>
+          <t>-36.61438844004992,174.82511944769476</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -56979,7 +57036,7 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>-36.614388440049915,174.82511944769476</t>
+          <t>-36.61438844004992,174.82511944769476</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
@@ -59523,7 +59580,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>-36.61530298705387,174.82847050094958</t>
+          <t>-36.61530298705388,174.82847050094958</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -59892,7 +59949,7 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>-36.61459814387481,174.8215710445426</t>
+          <t>-36.6145981438748,174.8215710445426</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
@@ -71611,7 +71668,7 @@
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>-36.614317250874485,174.8233327799019</t>
+          <t>-36.61431725087449,174.8233327799019</t>
         </is>
       </c>
       <c r="K467" t="inlineStr">
@@ -73702,7 +73759,7 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>-36.61441299282532,174.82424112771653</t>
+          <t>-36.61441299282533,174.82424112771653</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -79248,7 +79305,7 @@
       </c>
       <c r="I581" t="inlineStr">
         <is>
-          <t>-36.614284122622394,174.8242332115866</t>
+          <t>-36.61428412262239,174.8242332115866</t>
         </is>
       </c>
       <c r="J581" t="inlineStr">
@@ -84697,6 +84754,75 @@
         </is>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>-36.61549245094444,174.8283218341966</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>-36.615127117409024,174.8276038036943</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr">
+        <is>
+          <t>-36.614788482961515,174.8268208885635</t>
+        </is>
+      </c>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>-36.61450169137793,174.8259927643849</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>-36.61428957320782,174.82513327341485</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>-36.61424275879681,174.82423067073205</t>
+        </is>
+      </c>
+      <c r="J661" t="inlineStr">
+        <is>
+          <t>-36.614246618370224,174.82332401544028</t>
+        </is>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>-36.61428705990247,174.82241800330144</t>
+        </is>
+      </c>
+      <c r="L661" t="inlineStr">
+        <is>
+          <t>-36.614475684464324,174.82153710872382</t>
+        </is>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>-36.61467414811464,174.82066355377694</t>
+        </is>
+      </c>
+      <c r="N661" t="inlineStr">
+        <is>
+          <t>-36.614999786893634,174.8198579435046</t>
+        </is>
+      </c>
+      <c r="O661" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O661"/>
+  <dimension ref="A1:O662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31269,6 +31269,57 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>358.0566666666667</v>
+      </c>
+      <c r="C662" t="n">
+        <v>364.71</v>
+      </c>
+      <c r="D662" t="n">
+        <v>359.6554545454546</v>
+      </c>
+      <c r="E662" t="n">
+        <v>352.6877777777778</v>
+      </c>
+      <c r="F662" t="n">
+        <v>349.32</v>
+      </c>
+      <c r="G662" t="n">
+        <v>368.3633333333333</v>
+      </c>
+      <c r="H662" t="n">
+        <v>369.4</v>
+      </c>
+      <c r="I662" t="n">
+        <v>349.4454545454545</v>
+      </c>
+      <c r="J662" t="n">
+        <v>341.8433333333333</v>
+      </c>
+      <c r="K662" t="n">
+        <v>353.8133333333333</v>
+      </c>
+      <c r="L662" t="n">
+        <v>344.3333333333333</v>
+      </c>
+      <c r="M662" t="n">
+        <v>352.0876923076923</v>
+      </c>
+      <c r="N662" t="n">
+        <v>362.9954545454545</v>
+      </c>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31280,7 +31331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B727"/>
+  <dimension ref="A1:B728"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38558,6 +38609,16 @@
       </c>
       <c r="B727" t="n">
         <v>-0.87</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -38731,28 +38792,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3749933193835698</v>
+        <v>-0.3791303250994389</v>
       </c>
       <c r="J2" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K2" t="n">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0290612901625299</v>
+        <v>0.02981112417524256</v>
       </c>
       <c r="M2" t="n">
-        <v>11.89914107841624</v>
+        <v>11.89072059068327</v>
       </c>
       <c r="N2" t="n">
-        <v>266.7916837034177</v>
+        <v>266.3986314964283</v>
       </c>
       <c r="O2" t="n">
-        <v>16.33375901938735</v>
+        <v>16.32172268776884</v>
       </c>
       <c r="P2" t="n">
-        <v>377.1453702633161</v>
+        <v>377.1843205329697</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38809,28 +38870,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5533006597500459</v>
+        <v>0.5498353910964929</v>
       </c>
       <c r="J3" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K3" t="n">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06877990714227644</v>
+        <v>0.06821698451691349</v>
       </c>
       <c r="M3" t="n">
-        <v>10.48210194935295</v>
+        <v>10.47178374532851</v>
       </c>
       <c r="N3" t="n">
-        <v>234.8167969000251</v>
+        <v>234.5145287610954</v>
       </c>
       <c r="O3" t="n">
-        <v>15.32373312545037</v>
+        <v>15.31386720463174</v>
       </c>
       <c r="P3" t="n">
-        <v>359.3743659548418</v>
+        <v>359.4071875426766</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38887,28 +38948,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4762356876030878</v>
+        <v>0.4733036557020511</v>
       </c>
       <c r="J4" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K4" t="n">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06807485116387657</v>
+        <v>0.06750419615771119</v>
       </c>
       <c r="M4" t="n">
-        <v>8.809654618833171</v>
+        <v>8.802948023557953</v>
       </c>
       <c r="N4" t="n">
-        <v>176.2296116091309</v>
+        <v>176.0266944799864</v>
       </c>
       <c r="O4" t="n">
-        <v>13.27515015392033</v>
+        <v>13.26750520934461</v>
       </c>
       <c r="P4" t="n">
-        <v>355.5172270013618</v>
+        <v>355.5452972702718</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38965,28 +39026,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08037913898938699</v>
+        <v>0.07620547024974854</v>
       </c>
       <c r="J5" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002566825951272111</v>
+        <v>0.002313780187637171</v>
       </c>
       <c r="M5" t="n">
-        <v>8.763883712410651</v>
+        <v>8.766753584126217</v>
       </c>
       <c r="N5" t="n">
-        <v>138.115224168486</v>
+        <v>138.0751536473601</v>
       </c>
       <c r="O5" t="n">
-        <v>11.75224336748036</v>
+        <v>11.7505384407422</v>
       </c>
       <c r="P5" t="n">
-        <v>361.4784871858376</v>
+        <v>361.5193684013544</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -39043,28 +39104,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1313062767809915</v>
+        <v>-0.1317102380927595</v>
       </c>
       <c r="J6" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K6" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009318654465642173</v>
+        <v>0.009409941777545616</v>
       </c>
       <c r="M6" t="n">
-        <v>7.466296854296271</v>
+        <v>7.455352553789686</v>
       </c>
       <c r="N6" t="n">
-        <v>103.1038406194072</v>
+        <v>102.9279273601536</v>
       </c>
       <c r="O6" t="n">
-        <v>10.15400613646689</v>
+        <v>10.14534017961712</v>
       </c>
       <c r="P6" t="n">
-        <v>353.9056619609395</v>
+        <v>353.9095745395705</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39121,28 +39182,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.003619983431512195</v>
+        <v>-0.0001053116233314087</v>
       </c>
       <c r="J7" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K7" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L7" t="n">
-        <v>8.435512471760553e-06</v>
+        <v>7.15034942366799e-09</v>
       </c>
       <c r="M7" t="n">
-        <v>6.89255179610895</v>
+        <v>6.898914676794834</v>
       </c>
       <c r="N7" t="n">
-        <v>87.83296093327466</v>
+        <v>87.8705863799357</v>
       </c>
       <c r="O7" t="n">
-        <v>9.371924078505687</v>
+        <v>9.373931212673565</v>
       </c>
       <c r="P7" t="n">
-        <v>357.9548506466498</v>
+        <v>357.9209492603799</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39199,28 +39260,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03447002598445032</v>
+        <v>0.03594706951803722</v>
       </c>
       <c r="J8" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K8" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009530840282642172</v>
+        <v>0.001039795853970626</v>
       </c>
       <c r="M8" t="n">
-        <v>6.418229680466615</v>
+        <v>6.415000004827195</v>
       </c>
       <c r="N8" t="n">
-        <v>70.57668365897449</v>
+        <v>70.48781427300651</v>
       </c>
       <c r="O8" t="n">
-        <v>8.400993016243644</v>
+        <v>8.395702131031479</v>
       </c>
       <c r="P8" t="n">
-        <v>364.1156215971614</v>
+        <v>364.1014024025206</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39277,28 +39338,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07423613916894832</v>
+        <v>-0.07642455560273166</v>
       </c>
       <c r="J9" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K9" t="n">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005632672432536956</v>
+        <v>0.005982554153498798</v>
       </c>
       <c r="M9" t="n">
-        <v>5.353619816059275</v>
+        <v>5.355728282261849</v>
       </c>
       <c r="N9" t="n">
-        <v>54.95415535961072</v>
+        <v>54.92868199659869</v>
       </c>
       <c r="O9" t="n">
-        <v>7.413106997717672</v>
+        <v>7.411388668569385</v>
       </c>
       <c r="P9" t="n">
-        <v>357.7395849826053</v>
+        <v>357.7606641448315</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39355,28 +39416,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06846386598977371</v>
+        <v>-0.07100415150409384</v>
       </c>
       <c r="J10" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K10" t="n">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004569096895431835</v>
+        <v>0.004923033767694873</v>
       </c>
       <c r="M10" t="n">
-        <v>5.787032315051764</v>
+        <v>5.789615787723554</v>
       </c>
       <c r="N10" t="n">
-        <v>57.83012935297949</v>
+        <v>57.8256468478638</v>
       </c>
       <c r="O10" t="n">
-        <v>7.604612373617704</v>
+        <v>7.604317645118712</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0649926426415</v>
+        <v>351.0894399902095</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39433,28 +39494,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.07698774975659846</v>
+        <v>-0.0754699385213304</v>
       </c>
       <c r="J11" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K11" t="n">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005226636253342187</v>
+        <v>0.005039474590610382</v>
       </c>
       <c r="M11" t="n">
-        <v>6.067196072733096</v>
+        <v>6.064023533642557</v>
       </c>
       <c r="N11" t="n">
-        <v>64.36278616836555</v>
+        <v>64.28521042952512</v>
       </c>
       <c r="O11" t="n">
-        <v>8.022642093996563</v>
+        <v>8.017805836357295</v>
       </c>
       <c r="P11" t="n">
-        <v>351.2993642295575</v>
+        <v>351.2847735655057</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39511,28 +39572,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1317658575263614</v>
+        <v>-0.1338501032675169</v>
       </c>
       <c r="J12" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K12" t="n">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01551538945408848</v>
+        <v>0.01604323736515134</v>
       </c>
       <c r="M12" t="n">
-        <v>5.917129288605037</v>
+        <v>5.918364409762004</v>
       </c>
       <c r="N12" t="n">
-        <v>63.12440332487461</v>
+        <v>63.08017726923548</v>
       </c>
       <c r="O12" t="n">
-        <v>7.945086741180024</v>
+        <v>7.942303020486909</v>
       </c>
       <c r="P12" t="n">
-        <v>353.9293879960155</v>
+        <v>353.9494838616772</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39589,28 +39650,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1149696088095234</v>
+        <v>-0.1147371867856842</v>
       </c>
       <c r="J13" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K13" t="n">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0118769407116357</v>
+        <v>0.01187204900039973</v>
       </c>
       <c r="M13" t="n">
-        <v>5.990076546063928</v>
+        <v>5.980610311072469</v>
       </c>
       <c r="N13" t="n">
-        <v>63.93608640348335</v>
+        <v>63.82378714413692</v>
       </c>
       <c r="O13" t="n">
-        <v>7.996004402417707</v>
+        <v>7.988979105250991</v>
       </c>
       <c r="P13" t="n">
-        <v>354.354646626678</v>
+        <v>354.3524283099669</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39667,28 +39728,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06558627716293433</v>
+        <v>-0.06502146199383309</v>
       </c>
       <c r="J14" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="K14" t="n">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003529024134373393</v>
+        <v>0.003481844620151775</v>
       </c>
       <c r="M14" t="n">
-        <v>6.453126949856117</v>
+        <v>6.443995952406068</v>
       </c>
       <c r="N14" t="n">
-        <v>69.69219524740058</v>
+        <v>69.56642811543414</v>
       </c>
       <c r="O14" t="n">
-        <v>8.348185146928676</v>
+        <v>8.340649142329038</v>
       </c>
       <c r="P14" t="n">
-        <v>363.0918917979487</v>
+        <v>363.0864426506947</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39726,7 +39787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O661"/>
+  <dimension ref="A1:O662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84823,6 +84884,83 @@
         </is>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>-36.616247164539026,174.82980954318933</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>-36.61576035780155,174.82915969480638</t>
+        </is>
+      </c>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>-36.61529034412043,174.82848042145804</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>-36.61488469378858,174.82772338991947</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr">
+        <is>
+          <t>-36.614658155436,174.82687173997064</t>
+        </is>
+      </c>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>-36.61457088786739,174.82596712905953</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>-36.6144062611562,174.82511695555542</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>-36.614225509549556,174.8242296111641</t>
+        </is>
+      </c>
+      <c r="J662" t="inlineStr">
+        <is>
+          <t>-36.61421122738981,174.8233196239439</t>
+        </is>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>-36.61439023880259,174.82243613852734</t>
+        </is>
+      </c>
+      <c r="L662" t="inlineStr">
+        <is>
+          <t>-36.614419512031596,174.82152154232026</t>
+        </is>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>-36.614672290471894,174.82066277115135</t>
+        </is>
+      </c>
+      <c r="N662" t="inlineStr">
+        <is>
+          <t>-36.615025208924614,174.81987072071885</t>
+        </is>
+      </c>
+      <c r="O662" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O662"/>
+  <dimension ref="A1:O665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31320,6 +31320,149 @@
         </is>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="n">
+        <v>386.47</v>
+      </c>
+      <c r="G663" t="n">
+        <v>378.0566666666667</v>
+      </c>
+      <c r="H663" t="n">
+        <v>363.85</v>
+      </c>
+      <c r="I663" t="n">
+        <v>353.2281818181818</v>
+      </c>
+      <c r="J663" t="n">
+        <v>346.9866666666667</v>
+      </c>
+      <c r="K663" t="n">
+        <v>337.6466666666667</v>
+      </c>
+      <c r="L663" t="n">
+        <v>343.9966666666667</v>
+      </c>
+      <c r="M663" t="n">
+        <v>348.8607692307692</v>
+      </c>
+      <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>358.8933333333333</v>
+      </c>
+      <c r="C664" t="n">
+        <v>357.7</v>
+      </c>
+      <c r="D664" t="n">
+        <v>350.7354545454546</v>
+      </c>
+      <c r="E664" t="n">
+        <v>352.1255555555555</v>
+      </c>
+      <c r="F664" t="n">
+        <v>344.56</v>
+      </c>
+      <c r="G664" t="n">
+        <v>354.0466666666667</v>
+      </c>
+      <c r="H664" t="n">
+        <v>360.46</v>
+      </c>
+      <c r="I664" t="n">
+        <v>345.4454545454545</v>
+      </c>
+      <c r="J664" t="n">
+        <v>344.1466666666667</v>
+      </c>
+      <c r="K664" t="n">
+        <v>350.7666666666667</v>
+      </c>
+      <c r="L664" t="n">
+        <v>353.7166666666667</v>
+      </c>
+      <c r="M664" t="n">
+        <v>350.4561538461539</v>
+      </c>
+      <c r="N664" t="n">
+        <v>355.6754545454546</v>
+      </c>
+      <c r="O664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>341.6466666666667</v>
+      </c>
+      <c r="C665" t="n">
+        <v>354.87</v>
+      </c>
+      <c r="D665" t="n">
+        <v>345.8781818181818</v>
+      </c>
+      <c r="E665" t="n">
+        <v>355.6111111111111</v>
+      </c>
+      <c r="F665" t="n">
+        <v>334.31</v>
+      </c>
+      <c r="G665" t="n">
+        <v>353.4833333333333</v>
+      </c>
+      <c r="H665" t="n">
+        <v>355.9</v>
+      </c>
+      <c r="I665" t="n">
+        <v>340.8481818181818</v>
+      </c>
+      <c r="J665" t="n">
+        <v>337.4433333333333</v>
+      </c>
+      <c r="K665" t="n">
+        <v>350.3733333333333</v>
+      </c>
+      <c r="L665" t="n">
+        <v>345.6033333333333</v>
+      </c>
+      <c r="M665" t="n">
+        <v>354.7830769230769</v>
+      </c>
+      <c r="N665" t="n">
+        <v>360.0981818181818</v>
+      </c>
+      <c r="O665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31331,7 +31474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B728"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38619,6 +38762,46 @@
       </c>
       <c r="B728" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-07-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
@@ -38792,28 +38975,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3791303250994389</v>
+        <v>-0.3940763047823503</v>
       </c>
       <c r="J2" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K2" t="n">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02981112417524256</v>
+        <v>0.03225954103937212</v>
       </c>
       <c r="M2" t="n">
-        <v>11.89072059068327</v>
+        <v>11.90295322458237</v>
       </c>
       <c r="N2" t="n">
-        <v>266.3986314964283</v>
+        <v>266.8182675586324</v>
       </c>
       <c r="O2" t="n">
-        <v>16.32172268776884</v>
+        <v>16.33457276939414</v>
       </c>
       <c r="P2" t="n">
-        <v>377.1843205329697</v>
+        <v>377.3257155812014</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38870,28 +39053,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5498353910964929</v>
+        <v>0.5364302076528596</v>
       </c>
       <c r="J3" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K3" t="n">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06821698451691349</v>
+        <v>0.06538238107800798</v>
       </c>
       <c r="M3" t="n">
-        <v>10.47178374532851</v>
+        <v>10.4698572532887</v>
       </c>
       <c r="N3" t="n">
-        <v>234.5145287610954</v>
+        <v>234.7672989623351</v>
       </c>
       <c r="O3" t="n">
-        <v>15.31386720463174</v>
+        <v>15.32211796594502</v>
       </c>
       <c r="P3" t="n">
-        <v>359.4071875426766</v>
+        <v>359.534742476977</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38948,28 +39131,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4733036557020511</v>
+        <v>0.4593145801030237</v>
       </c>
       <c r="J4" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K4" t="n">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06750419615771119</v>
+        <v>0.06383087898053152</v>
       </c>
       <c r="M4" t="n">
-        <v>8.802948023557953</v>
+        <v>8.815641477799213</v>
       </c>
       <c r="N4" t="n">
-        <v>176.0266944799864</v>
+        <v>176.7813416849439</v>
       </c>
       <c r="O4" t="n">
-        <v>13.26750520934461</v>
+        <v>13.29591447343671</v>
       </c>
       <c r="P4" t="n">
-        <v>355.5452972702718</v>
+        <v>355.6798623438621</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -39026,28 +39209,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07620547024974854</v>
+        <v>0.06883749050693423</v>
       </c>
       <c r="J5" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K5" t="n">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002313780187637171</v>
+        <v>0.001899938954670444</v>
       </c>
       <c r="M5" t="n">
-        <v>8.766753584126217</v>
+        <v>8.76817968816378</v>
       </c>
       <c r="N5" t="n">
-        <v>138.0751536473601</v>
+        <v>137.9080143025585</v>
       </c>
       <c r="O5" t="n">
-        <v>11.7505384407422</v>
+        <v>11.74342430054192</v>
       </c>
       <c r="P5" t="n">
-        <v>361.5193684013544</v>
+        <v>361.59185975372</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -39104,28 +39287,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1317102380927595</v>
+        <v>-0.127166952893949</v>
       </c>
       <c r="J6" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K6" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009409941777545616</v>
+        <v>0.008646136964673201</v>
       </c>
       <c r="M6" t="n">
-        <v>7.455352553789686</v>
+        <v>7.518104311301835</v>
       </c>
       <c r="N6" t="n">
-        <v>102.9279273601536</v>
+        <v>105.1322705842238</v>
       </c>
       <c r="O6" t="n">
-        <v>10.14534017961712</v>
+        <v>10.25340287827528</v>
       </c>
       <c r="P6" t="n">
-        <v>353.9095745395705</v>
+        <v>353.8658254078977</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39182,28 +39365,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0001053116233314087</v>
+        <v>0.00377741226539387</v>
       </c>
       <c r="J7" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K7" t="n">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="L7" t="n">
-        <v>7.15034942366799e-09</v>
+        <v>9.222560384714029e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>6.898914676794834</v>
+        <v>6.912563375218047</v>
       </c>
       <c r="N7" t="n">
-        <v>87.8705863799357</v>
+        <v>88.17171752019718</v>
       </c>
       <c r="O7" t="n">
-        <v>9.373931212673565</v>
+        <v>9.389979633641234</v>
       </c>
       <c r="P7" t="n">
-        <v>357.9209492603799</v>
+        <v>357.8835684780491</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39260,28 +39443,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03594706951803722</v>
+        <v>0.03098286091131125</v>
       </c>
       <c r="J8" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K8" t="n">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001039795853970626</v>
+        <v>0.0007793013157110229</v>
       </c>
       <c r="M8" t="n">
-        <v>6.415000004827195</v>
+        <v>6.406178712965501</v>
       </c>
       <c r="N8" t="n">
-        <v>70.48781427300651</v>
+        <v>70.30372449334646</v>
       </c>
       <c r="O8" t="n">
-        <v>8.395702131031479</v>
+        <v>8.384731629178507</v>
       </c>
       <c r="P8" t="n">
-        <v>364.1014024025206</v>
+        <v>364.1494123555103</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39338,28 +39521,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07642455560273166</v>
+        <v>-0.08589338819053181</v>
       </c>
       <c r="J9" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K9" t="n">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="L9" t="n">
-        <v>0.005982554153498798</v>
+        <v>0.007551161406184725</v>
       </c>
       <c r="M9" t="n">
-        <v>5.355728282261849</v>
+        <v>5.377948164228925</v>
       </c>
       <c r="N9" t="n">
-        <v>54.92868199659869</v>
+        <v>55.22115623263888</v>
       </c>
       <c r="O9" t="n">
-        <v>7.411388668569385</v>
+        <v>7.431093878604877</v>
       </c>
       <c r="P9" t="n">
-        <v>357.7606641448315</v>
+        <v>357.8522760350959</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39416,28 +39599,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07100415150409384</v>
+        <v>-0.07748654052777491</v>
       </c>
       <c r="J10" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K10" t="n">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="L10" t="n">
-        <v>0.004923033767694873</v>
+        <v>0.005893787672247797</v>
       </c>
       <c r="M10" t="n">
-        <v>5.789615787723554</v>
+        <v>5.792032697537013</v>
       </c>
       <c r="N10" t="n">
-        <v>57.8256468478638</v>
+        <v>57.81709856446129</v>
       </c>
       <c r="O10" t="n">
-        <v>7.604317645118712</v>
+        <v>7.603755556595786</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0894399902095</v>
+        <v>351.1521048955109</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39494,28 +39677,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0754699385213304</v>
+        <v>-0.0785245617154289</v>
       </c>
       <c r="J11" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K11" t="n">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005039474590610382</v>
+        <v>0.005493402079606136</v>
       </c>
       <c r="M11" t="n">
-        <v>6.064023533642557</v>
+        <v>6.057939697315707</v>
       </c>
       <c r="N11" t="n">
-        <v>64.28521042952512</v>
+        <v>64.19180577851228</v>
       </c>
       <c r="O11" t="n">
-        <v>8.017805836357295</v>
+        <v>8.011978892789987</v>
       </c>
       <c r="P11" t="n">
-        <v>351.2847735655057</v>
+        <v>351.3141332518075</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39572,28 +39755,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1338501032675169</v>
+        <v>-0.1365557267216104</v>
       </c>
       <c r="J12" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K12" t="n">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01604323736515134</v>
+        <v>0.01683381198852762</v>
       </c>
       <c r="M12" t="n">
-        <v>5.918364409762004</v>
+        <v>5.913793802459246</v>
       </c>
       <c r="N12" t="n">
-        <v>63.08017726923548</v>
+        <v>62.8806137234625</v>
       </c>
       <c r="O12" t="n">
-        <v>7.942303020486909</v>
+        <v>7.929729738361989</v>
       </c>
       <c r="P12" t="n">
-        <v>353.9494838616772</v>
+        <v>353.9756304934778</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39650,28 +39833,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1147371867856842</v>
+        <v>-0.1147463304894146</v>
       </c>
       <c r="J13" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K13" t="n">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01187204900039973</v>
+        <v>0.01199651974011728</v>
       </c>
       <c r="M13" t="n">
-        <v>5.980610311072469</v>
+        <v>5.961105197611452</v>
       </c>
       <c r="N13" t="n">
-        <v>63.82378714413692</v>
+        <v>63.51985489069794</v>
       </c>
       <c r="O13" t="n">
-        <v>7.988979105250991</v>
+        <v>7.96993443452943</v>
       </c>
       <c r="P13" t="n">
-        <v>354.3524283099669</v>
+        <v>354.3524761922663</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39728,28 +39911,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06502146199383309</v>
+        <v>-0.06750193706199763</v>
       </c>
       <c r="J14" t="n">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="K14" t="n">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003481844620151775</v>
+        <v>0.003777240915792901</v>
       </c>
       <c r="M14" t="n">
-        <v>6.443995952406068</v>
+        <v>6.433110915812299</v>
       </c>
       <c r="N14" t="n">
-        <v>69.56642811543414</v>
+        <v>69.37069488512167</v>
       </c>
       <c r="O14" t="n">
-        <v>8.340649142329038</v>
+        <v>8.328907184326265</v>
       </c>
       <c r="P14" t="n">
-        <v>363.0864426506947</v>
+        <v>363.110483162219</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39787,7 +39970,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O662"/>
+  <dimension ref="A1:O665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84961,6 +85144,217 @@
         </is>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-22 22:11:31+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr"/>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr"/>
+      <c r="E663" t="inlineStr"/>
+      <c r="F663" t="inlineStr">
+        <is>
+          <t>-36.614977526613,174.8267471268993</t>
+        </is>
+      </c>
+      <c r="G663" t="inlineStr">
+        <is>
+          <t>-36.61465459143446,174.8259361192152</t>
+        </is>
+      </c>
+      <c r="H663" t="inlineStr">
+        <is>
+          <t>-36.61435655907571,174.8251239059918</t>
+        </is>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>-36.614259557992504,174.8242317026553</t>
+        </is>
+      </c>
+      <c r="J663" t="inlineStr">
+        <is>
+          <t>-36.614257349250174,174.82332534698443</t>
+        </is>
+      </c>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>-36.61424598464544,174.82241078372957</t>
+        </is>
+      </c>
+      <c r="L663" t="inlineStr">
+        <is>
+          <t>-36.61441655095859,174.8215207217537</t>
+        </is>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>-36.61464475403522,174.82065117004498</t>
+        </is>
+      </c>
+      <c r="N663" t="inlineStr"/>
+      <c r="O663" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>-36.61625229297598,174.8298026865438</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>-36.61571325508277,174.82921191803558</t>
+        </is>
+      </c>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>-36.6152224073807,174.8285337291959</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>-36.61487998562938,174.82772571242057</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr">
+        <is>
+          <t>-36.61461723465217,174.82688770647385</t>
+        </is>
+      </c>
+      <c r="G664" t="inlineStr">
+        <is>
+          <t>-36.61444726102435,174.82601292924636</t>
+        </is>
+      </c>
+      <c r="H664" t="inlineStr">
+        <is>
+          <t>-36.61432620050738,174.82512815138978</t>
+        </is>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>-36.614189505427916,174.8242273995443</t>
+        </is>
+      </c>
+      <c r="J664" t="inlineStr">
+        <is>
+          <t>-36.61423188209213,174.8233221868859</t>
+        </is>
+      </c>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>-36.61436305358704,174.82243136031613</t>
+        </is>
+      </c>
+      <c r="L664" t="inlineStr">
+        <is>
+          <t>-36.61450204094393,174.82154441259271</t>
+        </is>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>-36.61465836799718,174.82065690560876</t>
+        </is>
+      </c>
+      <c r="N664" t="inlineStr">
+        <is>
+          <t>-36.61496406848161,174.8198399913043</t>
+        </is>
+      </c>
+      <c r="O664" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>-36.6161465776303,174.82994402613608</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>-36.61569423928579,174.8292330010046</t>
+        </is>
+      </c>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>-36.615185413282546,174.8285627572089</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>-36.614909174354864,174.8277113138273</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr">
+        <is>
+          <t>-36.6145291174115,174.82692208807023</t>
+        </is>
+      </c>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>-36.614442396545215,174.82601473139292</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>-36.61428536420272,174.82513386200912</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>-36.614148125235914,174.82422485769283</t>
+        </is>
+      </c>
+      <c r="J665" t="inlineStr">
+        <is>
+          <t>-36.61417177122866,174.82331472802443</t>
+        </is>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>-36.61435954389837,174.82243074343575</t>
+        </is>
+      </c>
+      <c r="L665" t="inlineStr">
+        <is>
+          <t>-36.614430682019794,174.82152463772528</t>
+        </is>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>-36.6146952911082,174.82067246133118</t>
+        </is>
+      </c>
+      <c r="N665" t="inlineStr">
+        <is>
+          <t>-36.61500100939876,174.8198585579403</t>
+        </is>
+      </c>
+      <c r="O665" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O665"/>
+  <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31463,6 +31463,249 @@
         </is>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>376.8133333333333</v>
+      </c>
+      <c r="C666" t="n">
+        <v>369.55</v>
+      </c>
+      <c r="D666" t="n">
+        <v>359.1154545454545</v>
+      </c>
+      <c r="E666" t="n">
+        <v>361.7222222222222</v>
+      </c>
+      <c r="F666" t="n">
+        <v>352.15</v>
+      </c>
+      <c r="G666" t="n">
+        <v>358.3266666666667</v>
+      </c>
+      <c r="H666" t="n">
+        <v>366.75</v>
+      </c>
+      <c r="I666" t="n">
+        <v>354.6154545454545</v>
+      </c>
+      <c r="J666" t="n">
+        <v>357.7266666666667</v>
+      </c>
+      <c r="K666" t="n">
+        <v>350.0066666666667</v>
+      </c>
+      <c r="L666" t="n">
+        <v>358.4866666666667</v>
+      </c>
+      <c r="M666" t="n">
+        <v>360.4492307692308</v>
+      </c>
+      <c r="N666" t="n">
+        <v>369.3854545454545</v>
+      </c>
+      <c r="O666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>407.61</v>
+      </c>
+      <c r="C667" t="n">
+        <v>396.07</v>
+      </c>
+      <c r="D667" t="n">
+        <v>378.8590909090909</v>
+      </c>
+      <c r="E667" t="n">
+        <v>362.6133333333333</v>
+      </c>
+      <c r="F667" t="n">
+        <v>352.51</v>
+      </c>
+      <c r="G667" t="n">
+        <v>359.71</v>
+      </c>
+      <c r="H667" t="n">
+        <v>363.52</v>
+      </c>
+      <c r="I667" t="n">
+        <v>358.7890909090909</v>
+      </c>
+      <c r="J667" t="n">
+        <v>354.31</v>
+      </c>
+      <c r="K667" t="n">
+        <v>352.92</v>
+      </c>
+      <c r="L667" t="n">
+        <v>358.81</v>
+      </c>
+      <c r="M667" t="n">
+        <v>362.28</v>
+      </c>
+      <c r="N667" t="n">
+        <v>370.2990909090909</v>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="n">
+        <v>350.0163636363636</v>
+      </c>
+      <c r="E668" t="n">
+        <v>350.83</v>
+      </c>
+      <c r="F668" t="n">
+        <v>338.97</v>
+      </c>
+      <c r="G668" t="n">
+        <v>346.07</v>
+      </c>
+      <c r="H668" t="n">
+        <v>354.6</v>
+      </c>
+      <c r="I668" t="n">
+        <v>344.9463636363636</v>
+      </c>
+      <c r="J668" t="n">
+        <v>336.23</v>
+      </c>
+      <c r="K668" t="n">
+        <v>338.83</v>
+      </c>
+      <c r="L668" t="n">
+        <v>339.69</v>
+      </c>
+      <c r="M668" t="n">
+        <v>343.8046153846154</v>
+      </c>
+      <c r="N668" t="n">
+        <v>356.1663636363636</v>
+      </c>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="n">
+        <v>353.4563636363636</v>
+      </c>
+      <c r="E669" t="n">
+        <v>347.1677777777778</v>
+      </c>
+      <c r="F669" t="n">
+        <v>335.95</v>
+      </c>
+      <c r="G669" t="n">
+        <v>351.1333333333333</v>
+      </c>
+      <c r="H669" t="n">
+        <v>359.25</v>
+      </c>
+      <c r="I669" t="n">
+        <v>349.4863636363636</v>
+      </c>
+      <c r="J669" t="n">
+        <v>341.3333333333333</v>
+      </c>
+      <c r="K669" t="n">
+        <v>347.6233333333333</v>
+      </c>
+      <c r="L669" t="n">
+        <v>348.5633333333333</v>
+      </c>
+      <c r="M669" t="n">
+        <v>353.6638461538461</v>
+      </c>
+      <c r="N669" t="n">
+        <v>368.5463636363637</v>
+      </c>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>424.0233333333333</v>
+      </c>
+      <c r="C670" t="n">
+        <v>418.41</v>
+      </c>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="n">
+        <v>355.08</v>
+      </c>
+      <c r="G670" t="n">
+        <v>362.5866666666667</v>
+      </c>
+      <c r="H670" t="n">
+        <v>358.23</v>
+      </c>
+      <c r="I670" t="n">
+        <v>349.1227272727273</v>
+      </c>
+      <c r="J670" t="n">
+        <v>345.6666666666667</v>
+      </c>
+      <c r="K670" t="n">
+        <v>346.3166666666667</v>
+      </c>
+      <c r="L670" t="n">
+        <v>348.4166666666667</v>
+      </c>
+      <c r="M670" t="n">
+        <v>355.6361538461539</v>
+      </c>
+      <c r="N670" t="n">
+        <v>363.5427272727272</v>
+      </c>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31474,7 +31717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B732"/>
+  <dimension ref="A1:B737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38802,6 +39045,56 @@
       </c>
       <c r="B732" t="n">
         <v>0.32</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>-0.92</v>
       </c>
     </row>
   </sheetData>
@@ -38975,28 +39268,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3940763047823503</v>
+        <v>-0.3480259037870234</v>
       </c>
       <c r="J2" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K2" t="n">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03225954103937212</v>
+        <v>0.02474341021839999</v>
       </c>
       <c r="M2" t="n">
-        <v>11.90295322458237</v>
+        <v>12.09330120797635</v>
       </c>
       <c r="N2" t="n">
-        <v>266.8182675586324</v>
+        <v>275.7199580153616</v>
       </c>
       <c r="O2" t="n">
-        <v>16.33457276939414</v>
+        <v>16.60481731351964</v>
       </c>
       <c r="P2" t="n">
-        <v>377.3257155812014</v>
+        <v>376.8890460127514</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -39053,28 +39346,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5364302076528596</v>
+        <v>0.56067860881441</v>
       </c>
       <c r="J3" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K3" t="n">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06538238107800798</v>
+        <v>0.0705052839459418</v>
       </c>
       <c r="M3" t="n">
-        <v>10.4698572532887</v>
+        <v>10.59849246848908</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7672989623351</v>
+        <v>238.2679248957312</v>
       </c>
       <c r="O3" t="n">
-        <v>15.32211796594502</v>
+        <v>15.4359296738399</v>
       </c>
       <c r="P3" t="n">
-        <v>359.534742476977</v>
+        <v>359.3033355885764</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -39131,28 +39424,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4593145801030237</v>
+        <v>0.4491229745083761</v>
       </c>
       <c r="J4" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K4" t="n">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06383087898053152</v>
+        <v>0.06169868242785581</v>
       </c>
       <c r="M4" t="n">
-        <v>8.815641477799213</v>
+        <v>8.826172622464927</v>
       </c>
       <c r="N4" t="n">
-        <v>176.7813416849439</v>
+        <v>176.7743878847872</v>
       </c>
       <c r="O4" t="n">
-        <v>13.29591447343671</v>
+        <v>13.29565296947792</v>
       </c>
       <c r="P4" t="n">
-        <v>355.6798623438621</v>
+        <v>355.7781460766666</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -39209,28 +39502,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06883749050693423</v>
+        <v>0.05713514369199798</v>
       </c>
       <c r="J5" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K5" t="n">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001899938954670444</v>
+        <v>0.00132408563259423</v>
       </c>
       <c r="M5" t="n">
-        <v>8.76817968816378</v>
+        <v>8.757165280398393</v>
       </c>
       <c r="N5" t="n">
-        <v>137.9080143025585</v>
+        <v>137.6529259005026</v>
       </c>
       <c r="O5" t="n">
-        <v>11.74342430054192</v>
+        <v>11.73255836978886</v>
       </c>
       <c r="P5" t="n">
-        <v>361.59185975372</v>
+        <v>361.7072812280196</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -39287,28 +39580,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.127166952893949</v>
+        <v>-0.1331176559049201</v>
       </c>
       <c r="J6" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K6" t="n">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008646136964673201</v>
+        <v>0.009581705022002507</v>
       </c>
       <c r="M6" t="n">
-        <v>7.518104311301835</v>
+        <v>7.510980394731235</v>
       </c>
       <c r="N6" t="n">
-        <v>105.1322705842238</v>
+        <v>104.8717214289943</v>
       </c>
       <c r="O6" t="n">
-        <v>10.25340287827528</v>
+        <v>10.24068949968674</v>
       </c>
       <c r="P6" t="n">
-        <v>353.8658254078977</v>
+        <v>353.9238773704768</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39365,28 +39658,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00377741226539387</v>
+        <v>-0.0001472972414574622</v>
       </c>
       <c r="J7" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K7" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="L7" t="n">
-        <v>9.222560384714029e-06</v>
+        <v>1.422251549865194e-08</v>
       </c>
       <c r="M7" t="n">
-        <v>6.912563375218047</v>
+        <v>6.896795775938751</v>
       </c>
       <c r="N7" t="n">
-        <v>88.17171752019718</v>
+        <v>87.78371994085281</v>
       </c>
       <c r="O7" t="n">
-        <v>9.389979633641234</v>
+        <v>9.369296662015394</v>
       </c>
       <c r="P7" t="n">
-        <v>357.8835684780491</v>
+        <v>357.921691253612</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39443,28 +39736,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03098286091131125</v>
+        <v>0.02366279613989078</v>
       </c>
       <c r="J8" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K8" t="n">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007793013157110229</v>
+        <v>0.0004609907694824722</v>
       </c>
       <c r="M8" t="n">
-        <v>6.406178712965501</v>
+        <v>6.393389805960116</v>
       </c>
       <c r="N8" t="n">
-        <v>70.30372449334646</v>
+        <v>70.02392991088942</v>
       </c>
       <c r="O8" t="n">
-        <v>8.384731629178507</v>
+        <v>8.368030228846537</v>
       </c>
       <c r="P8" t="n">
-        <v>364.1494123555103</v>
+        <v>364.2204231105491</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39521,28 +39814,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.08589338819053181</v>
+        <v>-0.09294030620728344</v>
       </c>
       <c r="J9" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K9" t="n">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007551161406184725</v>
+        <v>0.008938059497771156</v>
       </c>
       <c r="M9" t="n">
-        <v>5.377948164228925</v>
+        <v>5.379968541305715</v>
       </c>
       <c r="N9" t="n">
-        <v>55.22115623263888</v>
+        <v>55.09355132802335</v>
       </c>
       <c r="O9" t="n">
-        <v>7.431093878604877</v>
+        <v>7.422503036578925</v>
       </c>
       <c r="P9" t="n">
-        <v>357.8522760350959</v>
+        <v>357.9206766004401</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39599,28 +39892,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.07748654052777491</v>
+        <v>-0.08094964600547881</v>
       </c>
       <c r="J10" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K10" t="n">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005893787672247797</v>
+        <v>0.006482721651160039</v>
       </c>
       <c r="M10" t="n">
-        <v>5.792032697537013</v>
+        <v>5.807557940251137</v>
       </c>
       <c r="N10" t="n">
-        <v>57.81709856446129</v>
+        <v>57.90418097846623</v>
       </c>
       <c r="O10" t="n">
-        <v>7.603755556595786</v>
+        <v>7.609479678563195</v>
       </c>
       <c r="P10" t="n">
-        <v>351.1521048955109</v>
+        <v>351.1857366538615</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39677,28 +39970,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0785245617154289</v>
+        <v>-0.08202724210934143</v>
       </c>
       <c r="J11" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K11" t="n">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005493402079606136</v>
+        <v>0.006079389757276621</v>
       </c>
       <c r="M11" t="n">
-        <v>6.057939697315707</v>
+        <v>6.040116943215747</v>
       </c>
       <c r="N11" t="n">
-        <v>64.19180577851228</v>
+        <v>63.86797790142404</v>
       </c>
       <c r="O11" t="n">
-        <v>8.011978892789987</v>
+        <v>7.9917443591136</v>
       </c>
       <c r="P11" t="n">
-        <v>351.3141332518075</v>
+        <v>351.3480786138578</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39755,28 +40048,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1365557267216104</v>
+        <v>-0.1359769021402258</v>
       </c>
       <c r="J12" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K12" t="n">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01683381198852762</v>
+        <v>0.01687341508723661</v>
       </c>
       <c r="M12" t="n">
-        <v>5.913793802459246</v>
+        <v>5.916187467454443</v>
       </c>
       <c r="N12" t="n">
-        <v>62.8806137234625</v>
+        <v>62.7818165465218</v>
       </c>
       <c r="O12" t="n">
-        <v>7.929729738361989</v>
+        <v>7.923497746987866</v>
       </c>
       <c r="P12" t="n">
-        <v>353.9756304934778</v>
+        <v>353.9700704799784</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39833,28 +40126,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1147463304894146</v>
+        <v>-0.1086383514402439</v>
       </c>
       <c r="J13" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K13" t="n">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01199651974011728</v>
+        <v>0.01087592493663414</v>
       </c>
       <c r="M13" t="n">
-        <v>5.961105197611452</v>
+        <v>5.965668667393738</v>
       </c>
       <c r="N13" t="n">
-        <v>63.51985489069794</v>
+        <v>63.45430066196582</v>
       </c>
       <c r="O13" t="n">
-        <v>7.96993443452943</v>
+        <v>7.965820777670423</v>
       </c>
       <c r="P13" t="n">
-        <v>354.3524761922663</v>
+        <v>354.2937806339737</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39911,28 +40204,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06750193706199763</v>
+        <v>-0.06021958772158958</v>
       </c>
       <c r="J14" t="n">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="K14" t="n">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003777240915792901</v>
+        <v>0.003047923940849406</v>
       </c>
       <c r="M14" t="n">
-        <v>6.433110915812299</v>
+        <v>6.431252456278224</v>
       </c>
       <c r="N14" t="n">
-        <v>69.37069488512167</v>
+        <v>69.14587410184419</v>
       </c>
       <c r="O14" t="n">
-        <v>8.328907184326265</v>
+        <v>8.315399816114928</v>
       </c>
       <c r="P14" t="n">
-        <v>363.110483162219</v>
+        <v>363.0397428910271</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39970,7 +40263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O665"/>
+  <dimension ref="A1:O670"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85355,6 +85648,367 @@
         </is>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>-36.6163621354244,174.82965582845142</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>-36.61579287949497,174.82912363764686</t>
+        </is>
+      </c>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>-36.6152862313588,174.8284836486107</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>-36.61496034999345,174.82768606921715</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr">
+        <is>
+          <t>-36.6146824843885,174.82686224727308</t>
+        </is>
+      </c>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>-36.6144842195514,174.82599923719107</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>-36.61438252953224,174.8251202742332</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>-36.61427204487632,174.82423246968685</t>
+        </is>
+      </c>
+      <c r="J666" t="inlineStr">
+        <is>
+          <t>-36.61435365814848,174.82333729752</t>
+        </is>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>-36.61435627215465,174.82243016837782</t>
+        </is>
+      </c>
+      <c r="L666" t="inlineStr">
+        <is>
+          <t>-36.614543994359984,174.82155603867315</t>
+        </is>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>-36.6147436423283,174.82069283174596</t>
+        </is>
+      </c>
+      <c r="N666" t="inlineStr">
+        <is>
+          <t>-36.615078581516386,174.81989754602756</t>
+        </is>
+      </c>
+      <c r="O666" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>-36.61655090630022,174.82940344244605</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>-36.61597107669125,174.82892606771625</t>
+        </is>
+      </c>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>-36.61543660328858,174.82836565630106</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>-36.614967812331614,174.8276823880913</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr">
+        <is>
+          <t>-36.61468557923753,174.82686103972105</t>
+        </is>
+      </c>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>-36.61449616486941,174.82599481179668</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>-36.61435360381686,174.82512431926077</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>-36.61430961190343,174.82423477731777</t>
+        </is>
+      </c>
+      <c r="J667" t="inlineStr">
+        <is>
+          <t>-36.614323019843226,174.82333349574748</t>
+        </is>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>-36.61438226764534,174.82243473747596</t>
+        </is>
+      </c>
+      <c r="L667" t="inlineStr">
+        <is>
+          <t>-36.614546838162404,174.82155682674477</t>
+        </is>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>-36.614759264904556,174.82069941355823</t>
+        </is>
+      </c>
+      <c r="N667" t="inlineStr">
+        <is>
+          <t>-36.61508621268019,174.81990138148885</t>
+        </is>
+      </c>
+      <c r="O667" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr"/>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>-36.61521693062055,174.8285380266257</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>-36.61486913639279,174.82773106426987</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr">
+        <is>
+          <t>-36.61456917851911,174.82690645703173</t>
+        </is>
+      </c>
+      <c r="G668" t="inlineStr">
+        <is>
+          <t>-36.614378381148875,174.82603844719486</t>
+        </is>
+      </c>
+      <c r="H668" t="inlineStr">
+        <is>
+          <t>-36.61427372227369,174.82513549003565</t>
+        </is>
+      </c>
+      <c r="I668" t="inlineStr">
+        <is>
+          <t>-36.61418501309544,174.82422712359462</t>
+        </is>
+      </c>
+      <c r="J668" t="inlineStr">
+        <is>
+          <t>-36.61416089089322,174.82331337793855</t>
+        </is>
+      </c>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>-36.61425654345526,174.8224126395926</t>
+        </is>
+      </c>
+      <c r="L668" t="inlineStr">
+        <is>
+          <t>-36.61437867267742,174.82151022500761</t>
+        </is>
+      </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>-36.61460160814471,174.82063299269117</t>
+        </is>
+      </c>
+      <c r="N668" t="inlineStr">
+        <is>
+          <t>-36.61496816880969,174.81984205214272</t>
+        </is>
+      </c>
+      <c r="O668" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr"/>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>-36.61524313044276,174.8285174684984</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>-36.6148384682237,174.82774619264578</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr">
+        <is>
+          <t>-36.61454321617061,174.8269165870198</t>
+        </is>
+      </c>
+      <c r="G669" t="inlineStr">
+        <is>
+          <t>-36.61442210389531,174.8260222492208</t>
+        </is>
+      </c>
+      <c r="H669" t="inlineStr">
+        <is>
+          <t>-36.614315364558145,174.82512966670814</t>
+        </is>
+      </c>
+      <c r="I669" t="inlineStr">
+        <is>
+          <t>-36.61422587777352,174.82422963378298</t>
+        </is>
+      </c>
+      <c r="J669" t="inlineStr">
+        <is>
+          <t>-36.61420665406208,174.823319056462</t>
+        </is>
+      </c>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>-36.614335005820465,174.82242643050256</t>
+        </is>
+      </c>
+      <c r="L669" t="inlineStr">
+        <is>
+          <t>-36.6144567160075,174.82153185221634</t>
+        </is>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>-36.6146857403304,174.82066843758284</t>
+        </is>
+      </c>
+      <c r="N669" t="inlineStr">
+        <is>
+          <t>-36.61507157299466,174.81989402351007</t>
+        </is>
+      </c>
+      <c r="O669" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:06:05+00:00</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>-36.616651513063076,174.82926893077274</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>-36.616121186760545,174.82875963744092</t>
+        </is>
+      </c>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr">
+        <is>
+          <t>-36.614707673020575,174.82685241913853</t>
+        </is>
+      </c>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>-36.614521005373625,174.825985609105</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>-36.614306230121585,174.82513094408367</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>-36.61422260467157,174.8242294327265</t>
+        </is>
+      </c>
+      <c r="J670" t="inlineStr">
+        <is>
+          <t>-36.6142455124021,174.82332387820594</t>
+        </is>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>-36.61432334651547,174.82242438120693</t>
+        </is>
+      </c>
+      <c r="L670" t="inlineStr">
+        <is>
+          <t>-36.614455426035136,174.82153149474144</t>
+        </is>
+      </c>
+      <c r="M670" t="inlineStr">
+        <is>
+          <t>-36.61470257070434,174.82067552823008</t>
+        </is>
+      </c>
+      <c r="N670" t="inlineStr">
+        <is>
+          <t>-36.615029780030376,174.81987301817585</t>
+        </is>
+      </c>
+      <c r="O670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O670"/>
+  <dimension ref="A1:O672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31672,7 +31672,9 @@
         <v>418.41</v>
       </c>
       <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr"/>
+      <c r="E670" t="n">
+        <v>389.8555555555556</v>
+      </c>
       <c r="F670" t="n">
         <v>355.08</v>
       </c>
@@ -31701,6 +31703,102 @@
         <v>363.5427272727272</v>
       </c>
       <c r="O670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="n">
+        <v>356.13</v>
+      </c>
+      <c r="E671" t="n">
+        <v>364.3555555555556</v>
+      </c>
+      <c r="F671" t="n">
+        <v>352.23</v>
+      </c>
+      <c r="G671" t="n">
+        <v>355.5566666666667</v>
+      </c>
+      <c r="H671" t="n">
+        <v>369.64</v>
+      </c>
+      <c r="I671" t="n">
+        <v>352.63</v>
+      </c>
+      <c r="J671" t="n">
+        <v>343.4066666666667</v>
+      </c>
+      <c r="K671" t="n">
+        <v>345.9766666666667</v>
+      </c>
+      <c r="L671" t="n">
+        <v>348.0266666666667</v>
+      </c>
+      <c r="M671" t="n">
+        <v>351.7984615384615</v>
+      </c>
+      <c r="N671" t="n">
+        <v>364.48</v>
+      </c>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>432.5566666666667</v>
+      </c>
+      <c r="C672" t="n">
+        <v>415.48</v>
+      </c>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="n">
+        <v>389.8444444444444</v>
+      </c>
+      <c r="F672" t="n">
+        <v>356.42</v>
+      </c>
+      <c r="G672" t="n">
+        <v>369.2433333333333</v>
+      </c>
+      <c r="H672" t="n">
+        <v>359.05</v>
+      </c>
+      <c r="I672" t="n">
+        <v>355.0063636363636</v>
+      </c>
+      <c r="J672" t="n">
+        <v>349.3133333333333</v>
+      </c>
+      <c r="K672" t="n">
+        <v>355.4733333333333</v>
+      </c>
+      <c r="L672" t="n">
+        <v>353.8433333333333</v>
+      </c>
+      <c r="M672" t="n">
+        <v>362.1761538461539</v>
+      </c>
+      <c r="N672" t="n">
+        <v>364.6263636363637</v>
+      </c>
+      <c r="O672" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -31717,7 +31815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B737"/>
+  <dimension ref="A1:B740"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39095,6 +39193,36 @@
       </c>
       <c r="B737" t="n">
         <v>-0.92</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>-0.79</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>-0.93</v>
       </c>
     </row>
   </sheetData>
@@ -39268,28 +39396,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3480259037870234</v>
+        <v>-0.3202492471476173</v>
       </c>
       <c r="J2" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K2" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02474341021839999</v>
+        <v>0.02047574942202213</v>
       </c>
       <c r="M2" t="n">
-        <v>12.09330120797635</v>
+        <v>12.23680490648959</v>
       </c>
       <c r="N2" t="n">
-        <v>275.7199580153616</v>
+        <v>284.1447751444741</v>
       </c>
       <c r="O2" t="n">
-        <v>16.60481731351964</v>
+        <v>16.85659441122299</v>
       </c>
       <c r="P2" t="n">
-        <v>376.8890460127514</v>
+        <v>376.6248656885244</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -39346,28 +39474,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.56067860881441</v>
+        <v>0.5764966287788426</v>
       </c>
       <c r="J3" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K3" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0705052839459418</v>
+        <v>0.07359337979288627</v>
       </c>
       <c r="M3" t="n">
-        <v>10.59849246848908</v>
+        <v>10.6930210439141</v>
       </c>
       <c r="N3" t="n">
-        <v>238.2679248957312</v>
+        <v>241.1146574568234</v>
       </c>
       <c r="O3" t="n">
-        <v>15.4359296738399</v>
+        <v>15.5278671251664</v>
       </c>
       <c r="P3" t="n">
-        <v>359.3033355885764</v>
+        <v>359.1519853325527</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -39424,28 +39552,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4491229745083761</v>
+        <v>0.4451430149897356</v>
       </c>
       <c r="J4" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K4" t="n">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06169868242785581</v>
+        <v>0.06082585012928687</v>
       </c>
       <c r="M4" t="n">
-        <v>8.826172622464927</v>
+        <v>8.823262429160058</v>
       </c>
       <c r="N4" t="n">
-        <v>176.7743878847872</v>
+        <v>176.6848220665411</v>
       </c>
       <c r="O4" t="n">
-        <v>13.29565296947792</v>
+        <v>13.29228430581219</v>
       </c>
       <c r="P4" t="n">
-        <v>355.7781460766666</v>
+        <v>355.8166034509084</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -39502,28 +39630,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05713514369199798</v>
+        <v>0.07730165923736114</v>
       </c>
       <c r="J5" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K5" t="n">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00132408563259423</v>
+        <v>0.002404493919313966</v>
       </c>
       <c r="M5" t="n">
-        <v>8.757165280398393</v>
+        <v>8.815485346804209</v>
       </c>
       <c r="N5" t="n">
-        <v>137.6529259005026</v>
+        <v>139.5315096630015</v>
       </c>
       <c r="O5" t="n">
-        <v>11.73255836978886</v>
+        <v>11.81234564610271</v>
       </c>
       <c r="P5" t="n">
-        <v>361.7072812280196</v>
+        <v>361.5079447482306</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -39580,28 +39708,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1331176559049201</v>
+        <v>-0.1305991134763421</v>
       </c>
       <c r="J6" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K6" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009581705022002507</v>
+        <v>0.009286390899481023</v>
       </c>
       <c r="M6" t="n">
-        <v>7.510980394731235</v>
+        <v>7.499022146364775</v>
       </c>
       <c r="N6" t="n">
-        <v>104.8717214289943</v>
+        <v>104.5802041970662</v>
       </c>
       <c r="O6" t="n">
-        <v>10.24068949968674</v>
+        <v>10.22644631321488</v>
       </c>
       <c r="P6" t="n">
-        <v>353.9238773704768</v>
+        <v>353.8992331604816</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39658,28 +39786,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0001472972414574622</v>
+        <v>0.002754987548951877</v>
       </c>
       <c r="J7" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K7" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="L7" t="n">
-        <v>1.422251549865194e-08</v>
+        <v>4.998323520410963e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>6.896795775938751</v>
+        <v>6.896815216102499</v>
       </c>
       <c r="N7" t="n">
-        <v>87.78371994085281</v>
+        <v>87.71240127734646</v>
       </c>
       <c r="O7" t="n">
-        <v>9.369296662015394</v>
+        <v>9.365489911229762</v>
       </c>
       <c r="P7" t="n">
-        <v>357.921691253612</v>
+        <v>357.8933909467227</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39736,28 +39864,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02366279613989078</v>
+        <v>0.02334038510535652</v>
       </c>
       <c r="J8" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K8" t="n">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004609907694824722</v>
+        <v>0.0004511463116195769</v>
       </c>
       <c r="M8" t="n">
-        <v>6.393389805960116</v>
+        <v>6.389545280409371</v>
       </c>
       <c r="N8" t="n">
-        <v>70.02392991088942</v>
+        <v>69.88193872336896</v>
       </c>
       <c r="O8" t="n">
-        <v>8.368030228846537</v>
+        <v>8.35954177711727</v>
       </c>
       <c r="P8" t="n">
-        <v>364.2204231105491</v>
+        <v>364.2235780775941</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39814,28 +39942,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09294030620728344</v>
+        <v>-0.09405450128427059</v>
       </c>
       <c r="J9" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K9" t="n">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="L9" t="n">
-        <v>0.008938059497771156</v>
+        <v>0.009216354302569951</v>
       </c>
       <c r="M9" t="n">
-        <v>5.379968541305715</v>
+        <v>5.367404326877467</v>
       </c>
       <c r="N9" t="n">
-        <v>55.09355132802335</v>
+        <v>54.91783356614368</v>
       </c>
       <c r="O9" t="n">
-        <v>7.422503036578925</v>
+        <v>7.410656756735106</v>
       </c>
       <c r="P9" t="n">
-        <v>357.9206766004401</v>
+        <v>357.9315108959941</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39892,28 +40020,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08094964600547881</v>
+        <v>-0.08273589396132366</v>
       </c>
       <c r="J10" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K10" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006482721651160039</v>
+        <v>0.006812940181901816</v>
       </c>
       <c r="M10" t="n">
-        <v>5.807557940251137</v>
+        <v>5.797754755056498</v>
       </c>
       <c r="N10" t="n">
-        <v>57.90418097846623</v>
+        <v>57.76009848040024</v>
       </c>
       <c r="O10" t="n">
-        <v>7.609479678563195</v>
+        <v>7.600006478970938</v>
       </c>
       <c r="P10" t="n">
-        <v>351.1857366538615</v>
+        <v>351.2030877808411</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39970,28 +40098,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.08202724210934143</v>
+        <v>-0.0810402756176284</v>
       </c>
       <c r="J11" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K11" t="n">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006079389757276621</v>
+        <v>0.005969580081595094</v>
       </c>
       <c r="M11" t="n">
-        <v>6.040116943215747</v>
+        <v>6.035383062413699</v>
       </c>
       <c r="N11" t="n">
-        <v>63.86797790142404</v>
+        <v>63.73330774187504</v>
       </c>
       <c r="O11" t="n">
-        <v>7.9917443591136</v>
+        <v>7.9833143331498</v>
       </c>
       <c r="P11" t="n">
-        <v>351.3480786138578</v>
+        <v>351.3384760643098</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -40048,28 +40176,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1359769021402258</v>
+        <v>-0.1356487365396559</v>
       </c>
       <c r="J12" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K12" t="n">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01687341508723661</v>
+        <v>0.01690359847965195</v>
       </c>
       <c r="M12" t="n">
-        <v>5.916187467454443</v>
+        <v>5.905606336186322</v>
       </c>
       <c r="N12" t="n">
-        <v>62.7818165465218</v>
+        <v>62.59343839246144</v>
       </c>
       <c r="O12" t="n">
-        <v>7.923497746987866</v>
+        <v>7.911601506171898</v>
       </c>
       <c r="P12" t="n">
-        <v>353.9700704799784</v>
+        <v>353.9668621137639</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -40126,28 +40254,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1086383514402439</v>
+        <v>-0.1050928939376339</v>
       </c>
       <c r="J13" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K13" t="n">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01087592493663414</v>
+        <v>0.01022451801081914</v>
       </c>
       <c r="M13" t="n">
-        <v>5.965668667393738</v>
+        <v>5.96233190814649</v>
       </c>
       <c r="N13" t="n">
-        <v>63.45430066196582</v>
+        <v>63.43213082311371</v>
       </c>
       <c r="O13" t="n">
-        <v>7.965820777670423</v>
+        <v>7.964429095868311</v>
       </c>
       <c r="P13" t="n">
-        <v>354.2937806339737</v>
+        <v>354.2595642163825</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -40204,28 +40332,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.06021958772158958</v>
+        <v>-0.05810862860830191</v>
       </c>
       <c r="J14" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="K14" t="n">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003047923940849406</v>
+        <v>0.002858512239370503</v>
       </c>
       <c r="M14" t="n">
-        <v>6.431252456278224</v>
+        <v>6.418600825396449</v>
       </c>
       <c r="N14" t="n">
-        <v>69.14587410184419</v>
+        <v>68.92576019032917</v>
       </c>
       <c r="O14" t="n">
-        <v>8.315399816114928</v>
+        <v>8.302153948845394</v>
       </c>
       <c r="P14" t="n">
-        <v>363.0397428910271</v>
+        <v>363.019165265807</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -40263,7 +40391,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O670"/>
+  <dimension ref="A1:O672"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85957,7 +86085,11 @@
         </is>
       </c>
       <c r="D670" t="inlineStr"/>
-      <c r="E670" t="inlineStr"/>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>-36.61519594396175,174.8275698517969</t>
+        </is>
+      </c>
       <c r="F670" t="inlineStr">
         <is>
           <t>-36.614707673020575,174.82685241913853</t>
@@ -86004,6 +86136,148 @@
         </is>
       </c>
       <c r="O670" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>-36.615263493462976,174.82850149030386</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>-36.61498240203986,174.8276751910752</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr">
+        <is>
+          <t>-36.61468317213273,174.82686197892818</t>
+        </is>
+      </c>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>-36.61446030013102,174.82600809863948</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>-36.61440841043533,174.82511665499584</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>-36.61425417373982,174.82423137191708</t>
+        </is>
+      </c>
+      <c r="J671" t="inlineStr">
+        <is>
+          <t>-36.6142252462833,174.82332136348032</t>
+        </is>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>-36.61432031271671,174.82242384797195</t>
+        </is>
+      </c>
+      <c r="L671" t="inlineStr">
+        <is>
+          <t>-36.61445199588138,174.82153054418322</t>
+        </is>
+      </c>
+      <c r="M671" t="inlineStr">
+        <is>
+          <t>-36.614669822367006,174.82066173133788</t>
+        </is>
+      </c>
+      <c r="N671" t="inlineStr">
+        <is>
+          <t>-36.61503760861833,174.81987695285787</t>
+        </is>
+      </c>
+      <c r="O671" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>-36.616703818715614,174.82919899767649</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>-36.61610149910498,174.8287814656202</t>
+        </is>
+      </c>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>-36.61519585091518,174.82756989769652</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr">
+        <is>
+          <t>-36.61471919273601,174.82684792435828</t>
+        </is>
+      </c>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>-36.61457848681601,174.82596431386307</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>-36.61431357349215,174.82512991717394</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>-36.6142755634609,174.82423268582292</t>
+        </is>
+      </c>
+      <c r="J672" t="inlineStr">
+        <is>
+          <t>-36.61427821318934,174.8233279358933</t>
+        </is>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>-36.614405050878304,174.82243874197442</t>
+        </is>
+      </c>
+      <c r="L672" t="inlineStr">
+        <is>
+          <t>-36.6145031550109,174.82154472132146</t>
+        </is>
+      </c>
+      <c r="M672" t="inlineStr">
+        <is>
+          <t>-36.614758378750025,174.82069904022006</t>
+        </is>
+      </c>
+      <c r="N672" t="inlineStr">
+        <is>
+          <t>-36.61503883112332,174.8198775672942</t>
+        </is>
+      </c>
+      <c r="O672" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O672"/>
+  <dimension ref="A1:O673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31767,7 +31767,9 @@
       <c r="C672" t="n">
         <v>415.48</v>
       </c>
-      <c r="D672" t="inlineStr"/>
+      <c r="D672" t="n">
+        <v>398.6263636363637</v>
+      </c>
       <c r="E672" t="n">
         <v>389.8444444444444</v>
       </c>
@@ -31799,6 +31801,57 @@
         <v>364.6263636363637</v>
       </c>
       <c r="O672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>403.6466666666667</v>
+      </c>
+      <c r="C673" t="n">
+        <v>394.05</v>
+      </c>
+      <c r="D673" t="n">
+        <v>378.4572727272728</v>
+      </c>
+      <c r="E673" t="n">
+        <v>364.4877777777778</v>
+      </c>
+      <c r="F673" t="n">
+        <v>349.75</v>
+      </c>
+      <c r="G673" t="n">
+        <v>364.0933333333333</v>
+      </c>
+      <c r="H673" t="n">
+        <v>357.17</v>
+      </c>
+      <c r="I673" t="n">
+        <v>354.3172727272727</v>
+      </c>
+      <c r="J673" t="n">
+        <v>349.5733333333333</v>
+      </c>
+      <c r="K673" t="n">
+        <v>349.1433333333333</v>
+      </c>
+      <c r="L673" t="n">
+        <v>353.9033333333333</v>
+      </c>
+      <c r="M673" t="n">
+        <v>354.8692307692308</v>
+      </c>
+      <c r="N673" t="n">
+        <v>359.4972727272728</v>
+      </c>
+      <c r="O673" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -31815,7 +31868,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B740"/>
+  <dimension ref="A1:B741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39223,6 +39276,16 @@
       </c>
       <c r="B740" t="n">
         <v>-0.93</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -40391,7 +40454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O672"/>
+  <dimension ref="A1:O673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86226,7 +86289,11 @@
           <t>-36.61610149910498,174.8287814656202</t>
         </is>
       </c>
-      <c r="D672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>-36.61558715513025,174.82824752228348</t>
+        </is>
+      </c>
       <c r="E672" t="inlineStr">
         <is>
           <t>-36.61519585091518,174.82756989769652</t>
@@ -86278,6 +86345,83 @@
         </is>
       </c>
       <c r="O672" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-19 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>-36.61652661272851,174.82943592297423</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>-36.615957503612464,174.8289411164382</t>
+        </is>
+      </c>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>-36.615433542952935,174.8283680576593</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>-36.61498350929449,174.82767464487299</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr">
+        <is>
+          <t>-36.61466185206134,174.82687029761766</t>
+        </is>
+      </c>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>-36.61453401569539,174.82598078915302</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>-36.614296737471804,174.82513227155206</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>-36.614269360932774,174.82423230482027</t>
+        </is>
+      </c>
+      <c r="J673" t="inlineStr">
+        <is>
+          <t>-36.614280544689684,174.82332822519837</t>
+        </is>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>-36.61434856868538,174.82242881437796</t>
+        </is>
+      </c>
+      <c r="L673" t="inlineStr">
+        <is>
+          <t>-36.614503682726834,174.82154486756136</t>
+        </is>
+      </c>
+      <c r="M673" t="inlineStr">
+        <is>
+          <t>-36.61469602628832,174.82067277106304</t>
+        </is>
+      </c>
+      <c r="N673" t="inlineStr">
+        <is>
+          <t>-36.614995990293885,174.81985603531922</t>
+        </is>
+      </c>
+      <c r="O673" t="inlineStr">
         <is>
           <t>L8</t>
         </is>

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -39459,28 +39459,28 @@
         <v>0.0332</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.3202492471476173</v>
+        <v>-0.3051199617634574</v>
       </c>
       <c r="J2" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K2" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L2" t="n">
-        <v>0.02047574942202213</v>
+        <v>0.01853980867405458</v>
       </c>
       <c r="M2" t="n">
-        <v>12.23680490648959</v>
+        <v>12.30566147613353</v>
       </c>
       <c r="N2" t="n">
-        <v>284.1447751444741</v>
+        <v>286.2184247336219</v>
       </c>
       <c r="O2" t="n">
-        <v>16.85659441122299</v>
+        <v>16.91799115538313</v>
       </c>
       <c r="P2" t="n">
-        <v>376.6248656885244</v>
+        <v>376.480681680752</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -39537,28 +39537,28 @@
         <v>0.0556</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5764966287788426</v>
+        <v>0.5840363297506138</v>
       </c>
       <c r="J3" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K3" t="n">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L3" t="n">
-        <v>0.07359337979288627</v>
+        <v>0.07547044632618183</v>
       </c>
       <c r="M3" t="n">
-        <v>10.6930210439141</v>
+        <v>10.72718411365866</v>
       </c>
       <c r="N3" t="n">
-        <v>241.1146574568234</v>
+        <v>241.4049655499599</v>
       </c>
       <c r="O3" t="n">
-        <v>15.5278671251664</v>
+        <v>15.53721228373867</v>
       </c>
       <c r="P3" t="n">
-        <v>359.1519853325527</v>
+        <v>359.0796979071203</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -39615,28 +39615,28 @@
         <v>0.058</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4451430149897356</v>
+        <v>0.4598736857349612</v>
       </c>
       <c r="J4" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K4" t="n">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L4" t="n">
-        <v>0.06082585012928687</v>
+        <v>0.06445619011900383</v>
       </c>
       <c r="M4" t="n">
-        <v>8.823262429160058</v>
+        <v>8.894600616765301</v>
       </c>
       <c r="N4" t="n">
-        <v>176.6848220665411</v>
+        <v>178.013280104326</v>
       </c>
       <c r="O4" t="n">
-        <v>13.29228430581219</v>
+        <v>13.34216174779507</v>
       </c>
       <c r="P4" t="n">
-        <v>355.8166034509084</v>
+        <v>355.6740198657207</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -39693,28 +39693,28 @@
         <v>0.0502</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07730165923736114</v>
+        <v>0.07765880114301801</v>
       </c>
       <c r="J5" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K5" t="n">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002404493919313966</v>
+        <v>0.002436636111734503</v>
       </c>
       <c r="M5" t="n">
-        <v>8.815485346804209</v>
+        <v>8.800758069083154</v>
       </c>
       <c r="N5" t="n">
-        <v>139.5315096630015</v>
+        <v>139.2694941107636</v>
       </c>
       <c r="O5" t="n">
-        <v>11.81234564610271</v>
+        <v>11.8012496842819</v>
       </c>
       <c r="P5" t="n">
-        <v>361.5079447482306</v>
+        <v>361.5044037092088</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -39771,28 +39771,28 @@
         <v>0.0532</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1305991134763421</v>
+        <v>-0.1308416950024199</v>
       </c>
       <c r="J6" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K6" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L6" t="n">
-        <v>0.009286390899481023</v>
+        <v>0.009353905086462277</v>
       </c>
       <c r="M6" t="n">
-        <v>7.499022146364775</v>
+        <v>7.487503636991712</v>
       </c>
       <c r="N6" t="n">
-        <v>104.5802041970662</v>
+        <v>104.4035857384935</v>
       </c>
       <c r="O6" t="n">
-        <v>10.22644631321488</v>
+        <v>10.21780728622798</v>
       </c>
       <c r="P6" t="n">
-        <v>353.8992331604816</v>
+        <v>353.9016125031487</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -39849,28 +39849,28 @@
         <v>0.064</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002754987548951877</v>
+        <v>0.004735250474185692</v>
       </c>
       <c r="J7" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K7" t="n">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L7" t="n">
-        <v>4.998323520410963e-06</v>
+        <v>1.480856621338678e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>6.896815216102499</v>
+        <v>6.895619348459244</v>
       </c>
       <c r="N7" t="n">
-        <v>87.71240127734646</v>
+        <v>87.62734006757087</v>
       </c>
       <c r="O7" t="n">
-        <v>9.365489911229762</v>
+        <v>9.360947605214488</v>
       </c>
       <c r="P7" t="n">
-        <v>357.8933909467227</v>
+        <v>357.8740464921225</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -39927,28 +39927,28 @@
         <v>0.0554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02334038510535652</v>
+        <v>0.02085486153358276</v>
       </c>
       <c r="J8" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K8" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004511463116195769</v>
+        <v>0.0003609984963836022</v>
       </c>
       <c r="M8" t="n">
-        <v>6.389545280409371</v>
+        <v>6.390793121731893</v>
       </c>
       <c r="N8" t="n">
-        <v>69.88193872336896</v>
+        <v>69.8624369579467</v>
       </c>
       <c r="O8" t="n">
-        <v>8.35954177711727</v>
+        <v>8.358375258263218</v>
       </c>
       <c r="P8" t="n">
-        <v>364.2235780775941</v>
+        <v>364.247811267675</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -40005,28 +40005,28 @@
         <v>0.0604</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.09405450128427059</v>
+        <v>-0.09443901423019738</v>
       </c>
       <c r="J9" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K9" t="n">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L9" t="n">
-        <v>0.009216354302569951</v>
+        <v>0.009324750198503873</v>
       </c>
       <c r="M9" t="n">
-        <v>5.367404326877467</v>
+        <v>5.360236157119075</v>
       </c>
       <c r="N9" t="n">
-        <v>54.91783356614368</v>
+        <v>54.82546513382695</v>
       </c>
       <c r="O9" t="n">
-        <v>7.410656756735106</v>
+        <v>7.404421998632097</v>
       </c>
       <c r="P9" t="n">
-        <v>357.9315108959941</v>
+        <v>357.9352615623916</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -40083,28 +40083,28 @@
         <v>0.0646</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.08273589396132366</v>
+        <v>-0.08256272948571181</v>
       </c>
       <c r="J10" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K10" t="n">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006812940181901816</v>
+        <v>0.006809284484318168</v>
       </c>
       <c r="M10" t="n">
-        <v>5.797754755056498</v>
+        <v>5.788691726309277</v>
       </c>
       <c r="N10" t="n">
-        <v>57.76009848040024</v>
+        <v>57.6613288343335</v>
       </c>
       <c r="O10" t="n">
-        <v>7.600006478970938</v>
+        <v>7.593505701211629</v>
       </c>
       <c r="P10" t="n">
-        <v>351.2030877808411</v>
+        <v>351.2014000297437</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -40161,28 +40161,28 @@
         <v>0.0626</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0810402756176284</v>
+        <v>-0.08106717894111136</v>
       </c>
       <c r="J11" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K11" t="n">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005969580081595094</v>
+        <v>0.005994971151852768</v>
       </c>
       <c r="M11" t="n">
-        <v>6.035383062413699</v>
+        <v>6.025143890242132</v>
       </c>
       <c r="N11" t="n">
-        <v>63.73330774187504</v>
+        <v>63.6236235569416</v>
       </c>
       <c r="O11" t="n">
-        <v>7.9833143331498</v>
+        <v>7.97644178546685</v>
       </c>
       <c r="P11" t="n">
-        <v>351.3384760643098</v>
+        <v>351.3387380395782</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -40239,28 +40239,28 @@
         <v>0.0625</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1356487365396559</v>
+        <v>-0.1345209168437154</v>
       </c>
       <c r="J12" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K12" t="n">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L12" t="n">
-        <v>0.01690359847965195</v>
+        <v>0.01668128852636441</v>
       </c>
       <c r="M12" t="n">
-        <v>5.905606336186322</v>
+        <v>5.900976532985126</v>
       </c>
       <c r="N12" t="n">
-        <v>62.59343839246144</v>
+        <v>62.50543935868843</v>
       </c>
       <c r="O12" t="n">
-        <v>7.911601506171898</v>
+        <v>7.906038158185706</v>
       </c>
       <c r="P12" t="n">
-        <v>353.9668621137639</v>
+        <v>353.9558441919012</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -40317,28 +40317,28 @@
         <v>0.0678</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1050928939376339</v>
+        <v>-0.1040185061132485</v>
       </c>
       <c r="J13" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K13" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01022451801081914</v>
+        <v>0.01005069848711415</v>
       </c>
       <c r="M13" t="n">
-        <v>5.96233190814649</v>
+        <v>5.957271967648558</v>
       </c>
       <c r="N13" t="n">
-        <v>63.43213082311371</v>
+        <v>63.34137658229164</v>
       </c>
       <c r="O13" t="n">
-        <v>7.964429095868311</v>
+        <v>7.958729583438028</v>
       </c>
       <c r="P13" t="n">
-        <v>354.2595642163825</v>
+        <v>354.2491719874087</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -40395,28 +40395,28 @@
         <v>0.0566</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.05810862860830191</v>
+        <v>-0.05879617336705507</v>
       </c>
       <c r="J14" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="K14" t="n">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002858512239370503</v>
+        <v>0.0029370246739715</v>
       </c>
       <c r="M14" t="n">
-        <v>6.418600825396449</v>
+        <v>6.410569798169639</v>
       </c>
       <c r="N14" t="n">
-        <v>68.92576019032917</v>
+        <v>68.80642285594026</v>
       </c>
       <c r="O14" t="n">
-        <v>8.302153948845394</v>
+        <v>8.294963704317231</v>
       </c>
       <c r="P14" t="n">
-        <v>363.019165265807</v>
+        <v>363.0258862965039</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">

--- a/data/nzd0143/nzd0143.xlsx
+++ b/data/nzd0143/nzd0143.xlsx
@@ -39450,13 +39450,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03</v>
+        <v>0.015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0297</v>
+        <v>0.015</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0332</v>
+        <v>0.0171</v>
       </c>
       <c r="I2" t="n">
         <v>-0.3051247281239399</v>
@@ -39528,13 +39528,13 @@
         <v>0.9170418957646426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.05</v>
+        <v>0.025</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0485</v>
+        <v>0.0247</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0556</v>
+        <v>0.0305</v>
       </c>
       <c r="I3" t="n">
         <v>0.5840363297506138</v>
@@ -39606,13 +39606,13 @@
         <v>0.8334383684878044</v>
       </c>
       <c r="F4" t="n">
-        <v>0.055</v>
+        <v>0.035</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0534</v>
+        <v>0.0337</v>
       </c>
       <c r="H4" t="n">
-        <v>0.058</v>
+        <v>0.0408</v>
       </c>
       <c r="I4" t="n">
         <v>0.4598875100761682</v>
@@ -39684,13 +39684,13 @@
         <v>0.7500654171900373</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.04</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0441</v>
+        <v>0.0379</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0502</v>
+        <v>0.0456</v>
       </c>
       <c r="I5" t="n">
         <v>0.07764677201809776</v>
@@ -39762,13 +39762,13 @@
         <v>0.6671242778443601</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0491</v>
+        <v>0.0369</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0532</v>
+        <v>0.0456</v>
       </c>
       <c r="I6" t="n">
         <v>-0.13084169500242</v>
@@ -39840,13 +39840,13 @@
         <v>0.5835207505706612</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0572</v>
+        <v>0.0436</v>
       </c>
       <c r="H7" t="n">
-        <v>0.064</v>
+        <v>0.0581</v>
       </c>
       <c r="I7" t="n">
         <v>0.004748012813848673</v>
@@ -39921,10 +39921,10 @@
         <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0495</v>
+        <v>0.0441</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0554</v>
+        <v>0.0562</v>
       </c>
       <c r="I8" t="n">
         <v>0.02085486153358289</v>
@@ -39996,13 +39996,13 @@
         <v>0.4173663241374411</v>
       </c>
       <c r="F9" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0541</v>
+        <v>0.0553</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0604</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="I9" t="n">
         <v>-0.09442820792580978</v>
@@ -40074,13 +40074,13 @@
         <v>0.3337914563774525</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.054</v>
+        <v>0.0526</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0646</v>
+        <v>0.0605</v>
       </c>
       <c r="I10" t="n">
         <v>-0.08255962717168737</v>
@@ -40152,13 +40152,13 @@
         <v>0.2501879291010367</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0536</v>
+        <v>0.0599</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0626</v>
+        <v>0.07190000000000001</v>
       </c>
       <c r="I11" t="n">
         <v>-0.08106055924018211</v>
@@ -40230,13 +40230,13 @@
         <v>0.1667219886845297</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0545</v>
+        <v>0.0596</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0625</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="I12" t="n">
         <v>-0.1345096377100619</v>
@@ -40308,13 +40308,13 @@
         <v>0.08319085955525751</v>
       </c>
       <c r="F13" t="n">
-        <v>0.065</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0586</v>
+        <v>0.061</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0678</v>
+        <v>0.0761</v>
       </c>
       <c r="I13" t="n">
         <v>-0.1039835443335373</v>
@@ -40386,13 +40386,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.055</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0491</v>
+        <v>0.0597</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0566</v>
+        <v>0.0694</v>
       </c>
       <c r="I14" t="n">
         <v>-0.05878307247894638</v>
